--- a/song8.xlsx
+++ b/song8.xlsx
@@ -204,8 +204,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -258,7 +266,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -281,6 +289,10 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -303,6 +315,10 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A967" workbookViewId="0">
-      <selection activeCell="B972" sqref="B972:S986"/>
+    <sheetView tabSelected="1" topLeftCell="A425" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C436" sqref="C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16426,20 +16442,20 @@
       <c r="B269" t="s">
         <v>18</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>19</v>
+      <c r="C269" t="s">
+        <v>18</v>
       </c>
       <c r="D269" t="s">
         <v>18</v>
       </c>
       <c r="E269" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F269" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G269" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H269" t="s">
         <v>18</v>
@@ -16485,20 +16501,20 @@
       <c r="B270" t="s">
         <v>18</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>19</v>
+      <c r="C270" t="s">
+        <v>18</v>
       </c>
       <c r="D270" t="s">
         <v>18</v>
       </c>
       <c r="E270" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F270" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G270" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H270" t="s">
         <v>18</v>
@@ -16547,16 +16563,16 @@
       <c r="C271" t="s">
         <v>18</v>
       </c>
-      <c r="D271" t="s">
-        <v>18</v>
-      </c>
-      <c r="E271" t="s">
-        <v>18</v>
+      <c r="D271" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F271" t="s">
         <v>18</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H271" t="s">
@@ -16606,16 +16622,16 @@
       <c r="C272" t="s">
         <v>18</v>
       </c>
-      <c r="D272" t="s">
-        <v>18</v>
-      </c>
-      <c r="E272" t="s">
-        <v>18</v>
+      <c r="D272" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F272" t="s">
         <v>18</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G272" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H272" t="s">
@@ -16659,20 +16675,20 @@
       <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="s">
-        <v>18</v>
-      </c>
-      <c r="C273" s="2" t="s">
+      <c r="B273" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C273" t="s">
+        <v>18</v>
+      </c>
       <c r="D273" t="s">
         <v>18</v>
       </c>
-      <c r="E273" t="s">
-        <v>18</v>
+      <c r="E273" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F273" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G273" t="s">
         <v>18</v>
@@ -16718,8 +16734,8 @@
       <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="s">
-        <v>18</v>
+      <c r="B274" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>19</v>
@@ -16727,10 +16743,10 @@
       <c r="D274" t="s">
         <v>18</v>
       </c>
-      <c r="E274" t="s">
-        <v>18</v>
-      </c>
-      <c r="F274" t="s">
+      <c r="E274" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F274" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G274" t="s">
@@ -16780,20 +16796,20 @@
       <c r="B275" t="s">
         <v>18</v>
       </c>
-      <c r="C275" t="s">
-        <v>18</v>
-      </c>
-      <c r="D275" s="2" t="s">
+      <c r="C275" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D275" t="s">
+        <v>18</v>
+      </c>
       <c r="E275" t="s">
         <v>18</v>
       </c>
-      <c r="F275" t="s">
-        <v>18</v>
+      <c r="F275" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G275" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H275" t="s">
         <v>18</v>
@@ -16839,20 +16855,20 @@
       <c r="B276" t="s">
         <v>18</v>
       </c>
-      <c r="C276" t="s">
-        <v>18</v>
-      </c>
-      <c r="D276" s="2" t="s">
+      <c r="C276" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D276" t="s">
+        <v>18</v>
+      </c>
       <c r="E276" t="s">
         <v>18</v>
       </c>
-      <c r="F276" t="s">
-        <v>18</v>
+      <c r="F276" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G276" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H276" t="s">
         <v>18</v>
@@ -16901,17 +16917,17 @@
       <c r="C277" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D277" t="s">
-        <v>18</v>
+      <c r="D277" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E277" t="s">
         <v>18</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F277" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G277" t="s">
-        <v>18</v>
+      <c r="G277" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H277" t="s">
         <v>18</v>
@@ -16957,20 +16973,20 @@
       <c r="B278" t="s">
         <v>18</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" t="s">
+        <v>18</v>
+      </c>
+      <c r="D278" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D278" t="s">
-        <v>18</v>
-      </c>
       <c r="E278" t="s">
         <v>18</v>
       </c>
       <c r="F278" t="s">
+        <v>18</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G278" t="s">
-        <v>18</v>
       </c>
       <c r="H278" t="s">
         <v>18</v>
@@ -17013,23 +17029,23 @@
       <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C279" s="2" t="s">
+      <c r="B279" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" t="s">
         <v>18</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E279" t="s">
+        <v>18</v>
+      </c>
+      <c r="F279" t="s">
+        <v>18</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G279" t="s">
-        <v>18</v>
       </c>
       <c r="H279" t="s">
         <v>18</v>
@@ -17073,22 +17089,22 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C280" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C280" t="s">
         <v>18</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E280" t="s">
+        <v>19</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F280" s="2" t="s">
+      <c r="F280" t="s">
         <v>18</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H280" t="s">
         <v>29</v>
@@ -17134,7 +17150,7 @@
       <c r="B281" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" t="s">
         <v>18</v>
       </c>
       <c r="D281" s="2" t="s">
@@ -17143,7 +17159,7 @@
       <c r="E281" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F281" s="2" t="s">
+      <c r="F281" t="s">
         <v>18</v>
       </c>
       <c r="G281" s="2" t="s">
@@ -17193,19 +17209,19 @@
       <c r="B282" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D282" s="2" t="s">
+      <c r="C282" t="s">
+        <v>18</v>
+      </c>
+      <c r="D282" t="s">
         <v>18</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F282" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G282" s="2" t="s">
+      <c r="F282" t="s">
+        <v>18</v>
+      </c>
+      <c r="G282" t="s">
         <v>18</v>
       </c>
       <c r="H282" t="s">
@@ -17255,7 +17271,7 @@
       <c r="C283" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" t="s">
         <v>18</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -17264,7 +17280,7 @@
       <c r="F283" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G283" s="2" t="s">
+      <c r="G283" t="s">
         <v>18</v>
       </c>
       <c r="H283" t="s">
@@ -17308,22 +17324,22 @@
       <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>19</v>
+      <c r="B284" t="s">
+        <v>18</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D284" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>28</v>
+      <c r="D284" t="s">
+        <v>18</v>
+      </c>
+      <c r="E284" t="s">
+        <v>18</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G284" s="2" t="s">
+      <c r="G284" t="s">
         <v>18</v>
       </c>
       <c r="H284" t="s">
@@ -17367,23 +17383,23 @@
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>19</v>
+      <c r="B285" t="s">
+        <v>18</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>28</v>
+      <c r="D285" t="s">
+        <v>18</v>
+      </c>
+      <c r="E285" t="s">
+        <v>18</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G285" s="2" t="s">
-        <v>28</v>
+      <c r="G285" t="s">
+        <v>18</v>
       </c>
       <c r="H285" t="s">
         <v>18</v>
@@ -17426,8 +17442,8 @@
       <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>19</v>
+      <c r="B286" t="s">
+        <v>18</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>19</v>
@@ -17435,8 +17451,8 @@
       <c r="D286" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E286" s="2" t="s">
-        <v>28</v>
+      <c r="E286" t="s">
+        <v>18</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>28</v>
@@ -17485,20 +17501,20 @@
       <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>19</v>
+      <c r="B287" t="s">
+        <v>18</v>
+      </c>
+      <c r="C287" t="s">
+        <v>18</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E287" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>28</v>
+      <c r="E287" t="s">
+        <v>18</v>
+      </c>
+      <c r="F287" t="s">
+        <v>18</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>28</v>
@@ -17544,20 +17560,20 @@
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>19</v>
+      <c r="B288" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" t="s">
+        <v>18</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E288" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>28</v>
+      <c r="E288" t="s">
+        <v>18</v>
+      </c>
+      <c r="F288" t="s">
+        <v>18</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>28</v>
@@ -17604,18 +17620,18 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C289" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C289" t="s">
         <v>18</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F289" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F289" t="s">
         <v>18</v>
       </c>
       <c r="G289" s="2" t="s">
@@ -17663,22 +17679,22 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C290" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C290" t="s">
         <v>18</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F290" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F290" t="s">
         <v>18</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H290" t="s">
         <v>29</v>
@@ -17721,8 +17737,8 @@
       <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="s">
-        <v>18</v>
+      <c r="B291" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C291" t="s">
         <v>18</v>
@@ -17730,8 +17746,8 @@
       <c r="D291" t="s">
         <v>18</v>
       </c>
-      <c r="E291" t="s">
-        <v>18</v>
+      <c r="E291" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F291" t="s">
         <v>18</v>
@@ -17780,20 +17796,20 @@
       <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="s">
-        <v>18</v>
-      </c>
-      <c r="C292" t="s">
-        <v>18</v>
+      <c r="B292" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D292" t="s">
         <v>18</v>
       </c>
-      <c r="E292" t="s">
-        <v>18</v>
-      </c>
-      <c r="F292" t="s">
-        <v>18</v>
+      <c r="E292" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G292" t="s">
         <v>18</v>
@@ -17840,19 +17856,19 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
+        <v>18</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C293" t="s">
-        <v>18</v>
-      </c>
       <c r="D293" t="s">
         <v>18</v>
       </c>
       <c r="E293" t="s">
+        <v>18</v>
+      </c>
+      <c r="F293" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F293" t="s">
-        <v>18</v>
       </c>
       <c r="G293" t="s">
         <v>18</v>
@@ -17899,19 +17915,19 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
+        <v>18</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C294" t="s">
-        <v>18</v>
-      </c>
       <c r="D294" t="s">
         <v>18</v>
       </c>
       <c r="E294" t="s">
+        <v>18</v>
+      </c>
+      <c r="F294" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F294" t="s">
-        <v>18</v>
       </c>
       <c r="G294" t="s">
         <v>18</v>
@@ -17958,22 +17974,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
+        <v>18</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D295" t="s">
-        <v>18</v>
-      </c>
       <c r="E295" t="s">
+        <v>18</v>
+      </c>
+      <c r="F295" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F295" t="s">
+      <c r="G295" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G295" t="s">
-        <v>18</v>
       </c>
       <c r="H295" t="s">
         <v>18</v>
@@ -18017,22 +18033,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
+        <v>18</v>
+      </c>
+      <c r="C296" t="s">
+        <v>18</v>
+      </c>
+      <c r="D296" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C296" t="s">
-        <v>19</v>
-      </c>
-      <c r="D296" t="s">
-        <v>18</v>
-      </c>
       <c r="E296" t="s">
+        <v>18</v>
+      </c>
+      <c r="F296" t="s">
+        <v>18</v>
+      </c>
+      <c r="G296" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F296" t="s">
-        <v>28</v>
-      </c>
-      <c r="G296" t="s">
-        <v>18</v>
       </c>
       <c r="H296" t="s">
         <v>18</v>
@@ -18076,21 +18092,21 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297" t="s">
+        <v>18</v>
+      </c>
+      <c r="D297" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C297" t="s">
-        <v>19</v>
-      </c>
-      <c r="D297" t="s">
-        <v>19</v>
-      </c>
       <c r="E297" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F297" t="s">
-        <v>28</v>
-      </c>
-      <c r="G297" t="s">
+        <v>18</v>
+      </c>
+      <c r="G297" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H297" t="s">
@@ -18134,22 +18150,22 @@
       <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C298" t="s">
+        <v>18</v>
+      </c>
+      <c r="D298" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D298" t="s">
-        <v>19</v>
-      </c>
-      <c r="E298" t="s">
+      <c r="E298" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F298" t="s">
-        <v>28</v>
-      </c>
-      <c r="G298" t="s">
+        <v>18</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H298" t="s">
@@ -18193,23 +18209,23 @@
       <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="s">
-        <v>18</v>
+      <c r="B299" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
-      </c>
-      <c r="D299" t="s">
-        <v>19</v>
-      </c>
-      <c r="E299" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F299" t="s">
-        <v>28</v>
-      </c>
-      <c r="G299" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H299" t="s">
         <v>18</v>
@@ -18252,23 +18268,23 @@
       <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="s">
-        <v>18</v>
+      <c r="B300" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D300" t="s">
-        <v>19</v>
-      </c>
-      <c r="E300" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F300" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G300" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H300" t="s">
         <v>18</v>
@@ -18311,23 +18327,23 @@
       <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="s">
-        <v>18</v>
-      </c>
-      <c r="C301" t="s">
-        <v>18</v>
+      <c r="B301" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D301" t="s">
-        <v>19</v>
-      </c>
-      <c r="E301" t="s">
-        <v>18</v>
-      </c>
-      <c r="F301" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G301" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H301" t="s">
         <v>18</v>
@@ -18373,20 +18389,20 @@
       <c r="B302" t="s">
         <v>18</v>
       </c>
-      <c r="C302" t="s">
-        <v>18</v>
+      <c r="C302" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D302" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E302" t="s">
         <v>18</v>
       </c>
-      <c r="F302" t="s">
-        <v>18</v>
+      <c r="F302" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G302" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H302" t="s">
         <v>18</v>
@@ -18432,8 +18448,8 @@
       <c r="B303" t="s">
         <v>18</v>
       </c>
-      <c r="C303" t="s">
-        <v>18</v>
+      <c r="C303" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D303" t="s">
         <v>18</v>
@@ -18441,8 +18457,8 @@
       <c r="E303" t="s">
         <v>18</v>
       </c>
-      <c r="F303" t="s">
-        <v>18</v>
+      <c r="F303" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G303" t="s">
         <v>18</v>
@@ -18489,22 +18505,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
+        <v>18</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C304" t="s">
-        <v>18</v>
-      </c>
-      <c r="D304" t="s">
-        <v>18</v>
+      <c r="D304" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E304" t="s">
+        <v>18</v>
+      </c>
+      <c r="F304" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F304" t="s">
-        <v>18</v>
-      </c>
-      <c r="G304" t="s">
-        <v>18</v>
+      <c r="G304" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H304" t="s">
         <v>18</v>
@@ -18548,22 +18564,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
+        <v>18</v>
+      </c>
+      <c r="C305" t="s">
+        <v>18</v>
+      </c>
+      <c r="D305" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C305" t="s">
-        <v>18</v>
-      </c>
-      <c r="D305" t="s">
-        <v>18</v>
-      </c>
       <c r="E305" t="s">
+        <v>18</v>
+      </c>
+      <c r="F305" t="s">
+        <v>18</v>
+      </c>
+      <c r="G305" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F305" t="s">
-        <v>18</v>
-      </c>
-      <c r="G305" t="s">
-        <v>18</v>
       </c>
       <c r="H305" t="s">
         <v>18</v>
@@ -18607,22 +18623,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
+        <v>18</v>
+      </c>
+      <c r="C306" t="s">
+        <v>18</v>
+      </c>
+      <c r="D306" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C306" t="s">
-        <v>19</v>
-      </c>
-      <c r="D306" t="s">
-        <v>18</v>
-      </c>
       <c r="E306" t="s">
+        <v>18</v>
+      </c>
+      <c r="F306" t="s">
+        <v>18</v>
+      </c>
+      <c r="G306" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F306" t="s">
-        <v>28</v>
-      </c>
-      <c r="G306" t="s">
-        <v>18</v>
       </c>
       <c r="H306" t="s">
         <v>29</v>
@@ -18665,23 +18681,23 @@
       <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C307" t="s">
+        <v>18</v>
+      </c>
+      <c r="D307" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D307" t="s">
-        <v>18</v>
-      </c>
-      <c r="E307" t="s">
+      <c r="E307" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F307" t="s">
+        <v>18</v>
+      </c>
+      <c r="G307" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G307" t="s">
-        <v>18</v>
       </c>
       <c r="H307" t="s">
         <v>29</v>
@@ -18724,23 +18740,23 @@
       <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C308" t="s">
-        <v>19</v>
-      </c>
-      <c r="D308" t="s">
-        <v>19</v>
-      </c>
-      <c r="E308" t="s">
+        <v>18</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E308" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F308" t="s">
-        <v>28</v>
-      </c>
-      <c r="G308" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H308" t="s">
         <v>29</v>
@@ -18783,23 +18799,23 @@
       <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C309" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D309" t="s">
-        <v>19</v>
-      </c>
-      <c r="E309" t="s">
+        <v>18</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F309" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G309" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H309" t="s">
         <v>18</v>
@@ -18842,23 +18858,23 @@
       <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="s">
-        <v>18</v>
-      </c>
-      <c r="C310" t="s">
+      <c r="B310" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C310" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D310" t="s">
-        <v>19</v>
-      </c>
-      <c r="E310" t="s">
-        <v>18</v>
-      </c>
-      <c r="F310" t="s">
+        <v>18</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F310" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G310" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H310" t="s">
         <v>18</v>
@@ -18904,20 +18920,20 @@
       <c r="B311" t="s">
         <v>18</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D311" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E311" t="s">
         <v>18</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F311" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G311" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H311" t="s">
         <v>18</v>
@@ -18963,20 +18979,20 @@
       <c r="B312" t="s">
         <v>18</v>
       </c>
-      <c r="C312" t="s">
-        <v>18</v>
+      <c r="C312" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D312" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E312" t="s">
         <v>18</v>
       </c>
-      <c r="F312" t="s">
-        <v>18</v>
+      <c r="F312" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G312" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H312" t="s">
         <v>18</v>
@@ -19022,19 +19038,19 @@
       <c r="B313" t="s">
         <v>18</v>
       </c>
-      <c r="C313" t="s">
-        <v>18</v>
-      </c>
-      <c r="D313" t="s">
+      <c r="C313" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D313" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E313" t="s">
         <v>18</v>
       </c>
-      <c r="F313" t="s">
-        <v>18</v>
-      </c>
-      <c r="G313" t="s">
+      <c r="F313" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G313" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H313" t="s">
@@ -19084,8 +19100,8 @@
       <c r="C314" t="s">
         <v>18</v>
       </c>
-      <c r="D314" t="s">
-        <v>18</v>
+      <c r="D314" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E314" t="s">
         <v>18</v>
@@ -19093,8 +19109,8 @@
       <c r="F314" t="s">
         <v>18</v>
       </c>
-      <c r="G314" t="s">
-        <v>18</v>
+      <c r="G314" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H314" t="s">
         <v>18</v>
@@ -19143,8 +19159,8 @@
       <c r="C315" t="s">
         <v>18</v>
       </c>
-      <c r="D315" t="s">
-        <v>18</v>
+      <c r="D315" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E315" t="s">
         <v>18</v>
@@ -19152,8 +19168,8 @@
       <c r="F315" t="s">
         <v>18</v>
       </c>
-      <c r="G315" t="s">
-        <v>18</v>
+      <c r="G315" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H315" t="s">
         <v>29</v>
@@ -19196,23 +19212,23 @@
       <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C316" t="s">
         <v>18</v>
       </c>
-      <c r="D316" t="s">
-        <v>18</v>
-      </c>
-      <c r="E316" t="s">
+      <c r="D316" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F316" t="s">
         <v>18</v>
       </c>
-      <c r="G316" t="s">
-        <v>18</v>
+      <c r="G316" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H316" t="s">
         <v>29</v>
@@ -19255,22 +19271,22 @@
       <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C317" t="s">
         <v>18</v>
       </c>
-      <c r="D317" t="s">
-        <v>18</v>
-      </c>
-      <c r="E317" t="s">
+      <c r="D317" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E317" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F317" t="s">
         <v>18</v>
       </c>
-      <c r="G317" t="s">
+      <c r="G317" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H317" t="s">
@@ -19314,20 +19330,20 @@
       <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C318" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D318" t="s">
         <v>18</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E318" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F318" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G318" t="s">
         <v>18</v>
@@ -19373,19 +19389,19 @@
       <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D319" t="s">
         <v>18</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E319" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F319" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G319" t="s">
@@ -19433,22 +19449,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
+        <v>18</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C320" t="s">
-        <v>19</v>
-      </c>
       <c r="D320" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E320" t="s">
+        <v>18</v>
+      </c>
+      <c r="F320" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F320" t="s">
-        <v>28</v>
-      </c>
       <c r="G320" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H320" t="s">
         <v>18</v>
@@ -19492,22 +19508,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
+        <v>18</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C321" t="s">
-        <v>19</v>
-      </c>
       <c r="D321" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E321" t="s">
+        <v>18</v>
+      </c>
+      <c r="F321" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F321" t="s">
-        <v>28</v>
-      </c>
       <c r="G321" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H321" t="s">
         <v>18</v>
@@ -19553,19 +19569,19 @@
       <c r="B322" t="s">
         <v>18</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E322" t="s">
         <v>18</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F322" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G322" t="s">
+      <c r="G322" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H322" t="s">
@@ -19613,18 +19629,18 @@
         <v>18</v>
       </c>
       <c r="C323" t="s">
+        <v>18</v>
+      </c>
+      <c r="D323" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D323" t="s">
-        <v>19</v>
-      </c>
       <c r="E323" t="s">
         <v>18</v>
       </c>
       <c r="F323" t="s">
-        <v>28</v>
-      </c>
-      <c r="G323" t="s">
+        <v>18</v>
+      </c>
+      <c r="G323" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H323" t="s">
@@ -19674,7 +19690,7 @@
       <c r="C324" t="s">
         <v>18</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E324" t="s">
@@ -19683,7 +19699,7 @@
       <c r="F324" t="s">
         <v>18</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G324" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H324" t="s">
@@ -19727,22 +19743,22 @@
       <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="s">
-        <v>18</v>
+      <c r="B325" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C325" t="s">
         <v>18</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E325" t="s">
-        <v>18</v>
+      <c r="E325" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F325" t="s">
         <v>18</v>
       </c>
-      <c r="G325" t="s">
+      <c r="G325" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H325" t="s">
@@ -19786,22 +19802,22 @@
       <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="s">
-        <v>18</v>
+      <c r="B326" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C326" t="s">
         <v>18</v>
       </c>
-      <c r="D326" t="s">
-        <v>18</v>
-      </c>
-      <c r="E326" t="s">
-        <v>18</v>
+      <c r="D326" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F326" t="s">
         <v>18</v>
       </c>
-      <c r="G326" t="s">
+      <c r="G326" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H326" t="s">
@@ -19845,8 +19861,8 @@
       <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="s">
-        <v>18</v>
+      <c r="B327" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C327" t="s">
         <v>18</v>
@@ -19854,8 +19870,8 @@
       <c r="D327" t="s">
         <v>18</v>
       </c>
-      <c r="E327" t="s">
-        <v>18</v>
+      <c r="E327" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F327" t="s">
         <v>18</v>
@@ -19904,20 +19920,20 @@
       <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C328" t="s">
-        <v>18</v>
+      <c r="C328" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D328" t="s">
         <v>18</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E328" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F328" t="s">
-        <v>18</v>
+      <c r="F328" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G328" t="s">
         <v>18</v>
@@ -19964,19 +19980,19 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
+        <v>18</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C329" t="s">
-        <v>18</v>
-      </c>
       <c r="D329" t="s">
         <v>18</v>
       </c>
       <c r="E329" t="s">
+        <v>18</v>
+      </c>
+      <c r="F329" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F329" t="s">
-        <v>18</v>
       </c>
       <c r="G329" t="s">
         <v>18</v>
@@ -20023,18 +20039,18 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
+        <v>18</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C330" t="s">
-        <v>19</v>
-      </c>
       <c r="D330" t="s">
         <v>18</v>
       </c>
       <c r="E330" t="s">
-        <v>28</v>
-      </c>
-      <c r="F330" t="s">
+        <v>18</v>
+      </c>
+      <c r="F330" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G330" t="s">
@@ -20082,22 +20098,22 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
+        <v>18</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D331" t="s">
-        <v>18</v>
-      </c>
       <c r="E331" t="s">
+        <v>18</v>
+      </c>
+      <c r="F331" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F331" t="s">
+      <c r="G331" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G331" t="s">
-        <v>18</v>
       </c>
       <c r="H331" t="s">
         <v>18</v>
@@ -20141,21 +20157,21 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
+        <v>18</v>
+      </c>
+      <c r="C332" t="s">
+        <v>18</v>
+      </c>
+      <c r="D332" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C332" t="s">
-        <v>19</v>
-      </c>
-      <c r="D332" t="s">
-        <v>19</v>
-      </c>
       <c r="E332" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F332" t="s">
-        <v>28</v>
-      </c>
-      <c r="G332" t="s">
+        <v>18</v>
+      </c>
+      <c r="G332" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H332" t="s">
@@ -20200,21 +20216,21 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
+        <v>18</v>
+      </c>
+      <c r="C333" t="s">
+        <v>18</v>
+      </c>
+      <c r="D333" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C333" t="s">
-        <v>19</v>
-      </c>
-      <c r="D333" t="s">
-        <v>19</v>
-      </c>
       <c r="E333" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F333" t="s">
-        <v>28</v>
-      </c>
-      <c r="G333" t="s">
+        <v>18</v>
+      </c>
+      <c r="G333" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H333" t="s">
@@ -20258,22 +20274,22 @@
       <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="s">
-        <v>18</v>
+      <c r="B334" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C334" t="s">
+        <v>18</v>
+      </c>
+      <c r="D334" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D334" t="s">
-        <v>19</v>
-      </c>
-      <c r="E334" t="s">
-        <v>18</v>
+      <c r="E334" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F334" t="s">
-        <v>28</v>
-      </c>
-      <c r="G334" t="s">
+        <v>18</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H334" t="s">
@@ -20317,23 +20333,23 @@
       <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="s">
-        <v>18</v>
+      <c r="B335" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C335" t="s">
-        <v>19</v>
-      </c>
-      <c r="D335" t="s">
-        <v>19</v>
-      </c>
-      <c r="E335" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F335" t="s">
-        <v>28</v>
-      </c>
-      <c r="G335" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H335" t="s">
         <v>18</v>
@@ -20376,23 +20392,23 @@
       <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="s">
-        <v>18</v>
+      <c r="B336" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C336" t="s">
         <v>18</v>
       </c>
       <c r="D336" t="s">
-        <v>19</v>
-      </c>
-      <c r="E336" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F336" t="s">
         <v>18</v>
       </c>
       <c r="G336" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H336" t="s">
         <v>29</v>
@@ -20435,23 +20451,23 @@
       <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="s">
-        <v>18</v>
-      </c>
-      <c r="C337" t="s">
-        <v>18</v>
+      <c r="B337" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D337" t="s">
-        <v>19</v>
-      </c>
-      <c r="E337" t="s">
-        <v>18</v>
-      </c>
-      <c r="F337" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G337" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H337" t="s">
         <v>29</v>
@@ -20497,8 +20513,8 @@
       <c r="B338" t="s">
         <v>18</v>
       </c>
-      <c r="C338" t="s">
-        <v>18</v>
+      <c r="C338" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D338" t="s">
         <v>18</v>
@@ -20506,8 +20522,8 @@
       <c r="E338" t="s">
         <v>18</v>
       </c>
-      <c r="F338" t="s">
-        <v>18</v>
+      <c r="F338" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G338" t="s">
         <v>18</v>
@@ -20556,8 +20572,8 @@
       <c r="B339" t="s">
         <v>18</v>
       </c>
-      <c r="C339" t="s">
-        <v>18</v>
+      <c r="C339" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D339" t="s">
         <v>18</v>
@@ -20565,8 +20581,8 @@
       <c r="E339" t="s">
         <v>18</v>
       </c>
-      <c r="F339" t="s">
-        <v>18</v>
+      <c r="F339" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G339" t="s">
         <v>18</v>
@@ -20613,22 +20629,22 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
+        <v>18</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C340" t="s">
-        <v>18</v>
-      </c>
-      <c r="D340" t="s">
-        <v>18</v>
+      <c r="D340" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E340" t="s">
+        <v>18</v>
+      </c>
+      <c r="F340" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F340" t="s">
-        <v>18</v>
-      </c>
-      <c r="G340" t="s">
-        <v>18</v>
+      <c r="G340" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H340" t="s">
         <v>29</v>
@@ -20672,22 +20688,22 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
+        <v>18</v>
+      </c>
+      <c r="C341" t="s">
+        <v>18</v>
+      </c>
+      <c r="D341" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C341" t="s">
-        <v>18</v>
-      </c>
-      <c r="D341" t="s">
-        <v>18</v>
-      </c>
       <c r="E341" t="s">
+        <v>18</v>
+      </c>
+      <c r="F341" t="s">
+        <v>18</v>
+      </c>
+      <c r="G341" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F341" t="s">
-        <v>18</v>
-      </c>
-      <c r="G341" t="s">
-        <v>18</v>
       </c>
       <c r="H341" t="s">
         <v>29</v>
@@ -20731,22 +20747,22 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
+        <v>18</v>
+      </c>
+      <c r="C342" t="s">
+        <v>18</v>
+      </c>
+      <c r="D342" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C342" t="s">
-        <v>19</v>
-      </c>
-      <c r="D342" t="s">
-        <v>18</v>
-      </c>
       <c r="E342" t="s">
+        <v>18</v>
+      </c>
+      <c r="F342" t="s">
+        <v>18</v>
+      </c>
+      <c r="G342" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F342" t="s">
-        <v>28</v>
-      </c>
-      <c r="G342" t="s">
-        <v>18</v>
       </c>
       <c r="H342" t="s">
         <v>29</v>
@@ -20789,23 +20805,23 @@
       <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C343" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D343" t="s">
-        <v>18</v>
-      </c>
-      <c r="E343" t="s">
+      <c r="E343" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F343" t="s">
+        <v>18</v>
+      </c>
+      <c r="G343" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G343" t="s">
-        <v>18</v>
       </c>
       <c r="H343" t="s">
         <v>18</v>
@@ -20848,23 +20864,23 @@
       <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C344" t="s">
-        <v>19</v>
-      </c>
-      <c r="D344" t="s">
-        <v>19</v>
-      </c>
-      <c r="E344" t="s">
+        <v>18</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E344" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F344" t="s">
-        <v>28</v>
-      </c>
-      <c r="G344" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H344" t="s">
         <v>18</v>
@@ -20907,23 +20923,23 @@
       <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C345" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D345" t="s">
-        <v>19</v>
-      </c>
-      <c r="E345" t="s">
+        <v>18</v>
+      </c>
+      <c r="E345" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F345" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G345" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H345" t="s">
         <v>18</v>
@@ -20966,23 +20982,23 @@
       <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="s">
-        <v>18</v>
-      </c>
-      <c r="C346" t="s">
+      <c r="B346" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C346" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D346" t="s">
-        <v>19</v>
-      </c>
-      <c r="E346" t="s">
-        <v>18</v>
-      </c>
-      <c r="F346" t="s">
+        <v>18</v>
+      </c>
+      <c r="E346" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F346" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G346" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H346" t="s">
         <v>18</v>
@@ -21028,20 +21044,20 @@
       <c r="B347" t="s">
         <v>18</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D347" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E347" t="s">
         <v>18</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F347" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G347" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H347" t="s">
         <v>18</v>
@@ -21087,20 +21103,20 @@
       <c r="B348" t="s">
         <v>18</v>
       </c>
-      <c r="C348" t="s">
-        <v>18</v>
+      <c r="C348" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D348" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E348" t="s">
         <v>18</v>
       </c>
-      <c r="F348" t="s">
-        <v>18</v>
+      <c r="F348" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G348" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H348" t="s">
         <v>29</v>
@@ -21146,19 +21162,19 @@
       <c r="B349" t="s">
         <v>18</v>
       </c>
-      <c r="C349" t="s">
-        <v>18</v>
-      </c>
-      <c r="D349" t="s">
+      <c r="C349" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D349" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E349" t="s">
         <v>18</v>
       </c>
-      <c r="F349" t="s">
-        <v>18</v>
-      </c>
-      <c r="G349" t="s">
+      <c r="F349" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G349" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H349" t="s">
@@ -21208,8 +21224,8 @@
       <c r="C350" t="s">
         <v>18</v>
       </c>
-      <c r="D350" t="s">
-        <v>18</v>
+      <c r="D350" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E350" t="s">
         <v>18</v>
@@ -21217,8 +21233,8 @@
       <c r="F350" t="s">
         <v>18</v>
       </c>
-      <c r="G350" t="s">
-        <v>18</v>
+      <c r="G350" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H350" t="s">
         <v>29</v>
@@ -21267,8 +21283,8 @@
       <c r="C351" t="s">
         <v>18</v>
       </c>
-      <c r="D351" t="s">
-        <v>18</v>
+      <c r="D351" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E351" t="s">
         <v>18</v>
@@ -21276,8 +21292,8 @@
       <c r="F351" t="s">
         <v>18</v>
       </c>
-      <c r="G351" t="s">
-        <v>18</v>
+      <c r="G351" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H351" t="s">
         <v>18</v>
@@ -21320,23 +21336,23 @@
       <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C352" t="s">
         <v>18</v>
       </c>
-      <c r="D352" t="s">
-        <v>18</v>
-      </c>
-      <c r="E352" t="s">
+      <c r="D352" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E352" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F352" t="s">
         <v>18</v>
       </c>
-      <c r="G352" t="s">
-        <v>18</v>
+      <c r="G352" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H352" t="s">
         <v>18</v>
@@ -21379,22 +21395,22 @@
       <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C353" t="s">
         <v>18</v>
       </c>
-      <c r="D353" t="s">
-        <v>18</v>
-      </c>
-      <c r="E353" t="s">
+      <c r="D353" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E353" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F353" t="s">
         <v>18</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G353" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H353" t="s">
@@ -21438,20 +21454,20 @@
       <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C354" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D354" t="s">
         <v>18</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E354" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F354" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G354" t="s">
         <v>18</v>
@@ -21497,19 +21513,19 @@
       <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D355" t="s">
         <v>18</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E355" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F355" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G355" t="s">
@@ -21557,22 +21573,22 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
+        <v>18</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C356" t="s">
-        <v>19</v>
-      </c>
       <c r="D356" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E356" t="s">
+        <v>18</v>
+      </c>
+      <c r="F356" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F356" t="s">
-        <v>28</v>
-      </c>
       <c r="G356" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H356" t="s">
         <v>18</v>
@@ -21616,22 +21632,22 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
+        <v>18</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C357" t="s">
-        <v>19</v>
-      </c>
       <c r="D357" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E357" t="s">
+        <v>18</v>
+      </c>
+      <c r="F357" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F357" t="s">
-        <v>28</v>
-      </c>
       <c r="G357" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H357" t="s">
         <v>18</v>
@@ -21677,19 +21693,19 @@
       <c r="B358" t="s">
         <v>18</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C358" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E358" t="s">
         <v>18</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F358" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G358" t="s">
+      <c r="G358" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H358" t="s">
@@ -21737,18 +21753,18 @@
         <v>18</v>
       </c>
       <c r="C359" t="s">
+        <v>18</v>
+      </c>
+      <c r="D359" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D359" t="s">
-        <v>19</v>
-      </c>
       <c r="E359" t="s">
         <v>18</v>
       </c>
       <c r="F359" t="s">
-        <v>28</v>
-      </c>
-      <c r="G359" t="s">
+        <v>18</v>
+      </c>
+      <c r="G359" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H359" t="s">
@@ -21798,7 +21814,7 @@
       <c r="C360" t="s">
         <v>18</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E360" t="s">
@@ -21807,7 +21823,7 @@
       <c r="F360" t="s">
         <v>18</v>
       </c>
-      <c r="G360" t="s">
+      <c r="G360" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H360" t="s">
@@ -21851,22 +21867,22 @@
       <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="s">
-        <v>18</v>
+      <c r="B361" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C361" t="s">
         <v>18</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E361" t="s">
-        <v>18</v>
+      <c r="E361" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F361" t="s">
         <v>18</v>
       </c>
-      <c r="G361" t="s">
+      <c r="G361" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H361" t="s">
@@ -21910,22 +21926,22 @@
       <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="s">
-        <v>18</v>
+      <c r="B362" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C362" t="s">
         <v>18</v>
       </c>
-      <c r="D362" t="s">
-        <v>18</v>
-      </c>
-      <c r="E362" t="s">
-        <v>18</v>
+      <c r="D362" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F362" t="s">
         <v>18</v>
       </c>
-      <c r="G362" t="s">
+      <c r="G362" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H362" t="s">
@@ -21969,8 +21985,8 @@
       <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="s">
-        <v>18</v>
+      <c r="B363" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C363" t="s">
         <v>18</v>
@@ -21978,8 +21994,8 @@
       <c r="D363" t="s">
         <v>18</v>
       </c>
-      <c r="E363" t="s">
-        <v>18</v>
+      <c r="E363" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F363" t="s">
         <v>18</v>
@@ -22028,20 +22044,20 @@
       <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C364" t="s">
-        <v>18</v>
+      <c r="C364" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D364" t="s">
         <v>18</v>
       </c>
-      <c r="E364" t="s">
+      <c r="E364" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F364" t="s">
-        <v>18</v>
+      <c r="F364" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G364" t="s">
         <v>18</v>
@@ -22088,19 +22104,19 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
+        <v>18</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C365" t="s">
-        <v>18</v>
-      </c>
       <c r="D365" t="s">
         <v>18</v>
       </c>
       <c r="E365" t="s">
+        <v>18</v>
+      </c>
+      <c r="F365" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F365" t="s">
-        <v>18</v>
       </c>
       <c r="G365" t="s">
         <v>18</v>
@@ -22147,18 +22163,18 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
+        <v>18</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C366" t="s">
-        <v>19</v>
-      </c>
       <c r="D366" t="s">
         <v>18</v>
       </c>
       <c r="E366" t="s">
-        <v>28</v>
-      </c>
-      <c r="F366" t="s">
+        <v>18</v>
+      </c>
+      <c r="F366" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G366" t="s">
@@ -22206,22 +22222,22 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
+        <v>18</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C367" t="s">
+      <c r="D367" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D367" t="s">
-        <v>18</v>
-      </c>
       <c r="E367" t="s">
+        <v>18</v>
+      </c>
+      <c r="F367" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F367" t="s">
+      <c r="G367" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G367" t="s">
-        <v>18</v>
       </c>
       <c r="H367" t="s">
         <v>18</v>
@@ -22265,21 +22281,21 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
+        <v>18</v>
+      </c>
+      <c r="C368" t="s">
+        <v>18</v>
+      </c>
+      <c r="D368" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C368" t="s">
-        <v>19</v>
-      </c>
-      <c r="D368" t="s">
-        <v>19</v>
-      </c>
       <c r="E368" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F368" t="s">
-        <v>28</v>
-      </c>
-      <c r="G368" t="s">
+        <v>18</v>
+      </c>
+      <c r="G368" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H368" t="s">
@@ -22324,21 +22340,21 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
+        <v>18</v>
+      </c>
+      <c r="C369" t="s">
+        <v>18</v>
+      </c>
+      <c r="D369" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C369" t="s">
-        <v>19</v>
-      </c>
-      <c r="D369" t="s">
-        <v>19</v>
-      </c>
       <c r="E369" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F369" t="s">
-        <v>28</v>
-      </c>
-      <c r="G369" t="s">
+        <v>18</v>
+      </c>
+      <c r="G369" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H369" t="s">
@@ -22382,22 +22398,22 @@
       <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" t="s">
-        <v>18</v>
+      <c r="B370" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C370" t="s">
+        <v>18</v>
+      </c>
+      <c r="D370" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D370" t="s">
-        <v>19</v>
-      </c>
-      <c r="E370" t="s">
-        <v>18</v>
+      <c r="E370" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F370" t="s">
-        <v>28</v>
-      </c>
-      <c r="G370" t="s">
+        <v>18</v>
+      </c>
+      <c r="G370" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H370" t="s">
@@ -22441,23 +22457,23 @@
       <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" t="s">
-        <v>18</v>
+      <c r="B371" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C371" t="s">
-        <v>19</v>
-      </c>
-      <c r="D371" t="s">
-        <v>19</v>
-      </c>
-      <c r="E371" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F371" t="s">
-        <v>28</v>
-      </c>
-      <c r="G371" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H371" t="s">
         <v>29</v>
@@ -22500,23 +22516,23 @@
       <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" t="s">
-        <v>18</v>
+      <c r="B372" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C372" t="s">
         <v>18</v>
       </c>
       <c r="D372" t="s">
-        <v>19</v>
-      </c>
-      <c r="E372" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F372" t="s">
         <v>18</v>
       </c>
       <c r="G372" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H372" t="s">
         <v>18</v>
@@ -22559,23 +22575,23 @@
       <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" t="s">
-        <v>18</v>
-      </c>
-      <c r="C373" t="s">
-        <v>18</v>
+      <c r="B373" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D373" t="s">
-        <v>19</v>
-      </c>
-      <c r="E373" t="s">
-        <v>18</v>
-      </c>
-      <c r="F373" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G373" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H373" t="s">
         <v>18</v>
@@ -22621,8 +22637,8 @@
       <c r="B374" t="s">
         <v>18</v>
       </c>
-      <c r="C374" t="s">
-        <v>18</v>
+      <c r="C374" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D374" t="s">
         <v>18</v>
@@ -22630,8 +22646,8 @@
       <c r="E374" t="s">
         <v>18</v>
       </c>
-      <c r="F374" t="s">
-        <v>18</v>
+      <c r="F374" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G374" t="s">
         <v>18</v>
@@ -22680,8 +22696,8 @@
       <c r="B375" t="s">
         <v>18</v>
       </c>
-      <c r="C375" t="s">
-        <v>18</v>
+      <c r="C375" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D375" t="s">
         <v>18</v>
@@ -22689,8 +22705,8 @@
       <c r="E375" t="s">
         <v>18</v>
       </c>
-      <c r="F375" t="s">
-        <v>18</v>
+      <c r="F375" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G375" t="s">
         <v>18</v>
@@ -22737,22 +22753,22 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
+        <v>18</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C376" t="s">
-        <v>18</v>
-      </c>
-      <c r="D376" t="s">
-        <v>18</v>
+      <c r="D376" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E376" t="s">
+        <v>18</v>
+      </c>
+      <c r="F376" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F376" t="s">
-        <v>18</v>
-      </c>
-      <c r="G376" t="s">
-        <v>18</v>
+      <c r="G376" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H376" t="s">
         <v>29</v>
@@ -22796,22 +22812,22 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
+        <v>18</v>
+      </c>
+      <c r="C377" t="s">
+        <v>18</v>
+      </c>
+      <c r="D377" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C377" t="s">
-        <v>18</v>
-      </c>
-      <c r="D377" t="s">
-        <v>18</v>
-      </c>
       <c r="E377" t="s">
+        <v>18</v>
+      </c>
+      <c r="F377" t="s">
+        <v>18</v>
+      </c>
+      <c r="G377" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F377" t="s">
-        <v>18</v>
-      </c>
-      <c r="G377" t="s">
-        <v>18</v>
       </c>
       <c r="H377" t="s">
         <v>29</v>
@@ -22855,22 +22871,22 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
+        <v>18</v>
+      </c>
+      <c r="C378" t="s">
+        <v>18</v>
+      </c>
+      <c r="D378" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C378" t="s">
-        <v>19</v>
-      </c>
-      <c r="D378" t="s">
-        <v>18</v>
-      </c>
       <c r="E378" t="s">
+        <v>18</v>
+      </c>
+      <c r="F378" t="s">
+        <v>18</v>
+      </c>
+      <c r="G378" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F378" t="s">
-        <v>28</v>
-      </c>
-      <c r="G378" t="s">
-        <v>18</v>
       </c>
       <c r="H378" t="s">
         <v>29</v>
@@ -22913,23 +22929,23 @@
       <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C379" t="s">
+        <v>18</v>
+      </c>
+      <c r="D379" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D379" t="s">
-        <v>18</v>
-      </c>
-      <c r="E379" t="s">
+      <c r="E379" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F379" t="s">
+        <v>18</v>
+      </c>
+      <c r="G379" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G379" t="s">
-        <v>18</v>
       </c>
       <c r="H379" t="s">
         <v>29</v>
@@ -22972,23 +22988,23 @@
       <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C380" t="s">
-        <v>19</v>
-      </c>
-      <c r="D380" t="s">
-        <v>19</v>
-      </c>
-      <c r="E380" t="s">
+        <v>18</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E380" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F380" t="s">
-        <v>28</v>
-      </c>
-      <c r="G380" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H380" t="s">
         <v>29</v>
@@ -23031,23 +23047,23 @@
       <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C381" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D381" t="s">
-        <v>19</v>
-      </c>
-      <c r="E381" t="s">
+        <v>18</v>
+      </c>
+      <c r="E381" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F381" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G381" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H381" t="s">
         <v>18</v>
@@ -23090,23 +23106,23 @@
       <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" t="s">
-        <v>18</v>
-      </c>
-      <c r="C382" t="s">
+      <c r="B382" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C382" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D382" t="s">
-        <v>19</v>
-      </c>
-      <c r="E382" t="s">
-        <v>18</v>
-      </c>
-      <c r="F382" t="s">
+        <v>18</v>
+      </c>
+      <c r="E382" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F382" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G382" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H382" t="s">
         <v>18</v>
@@ -23152,20 +23168,20 @@
       <c r="B383" t="s">
         <v>18</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D383" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E383" t="s">
         <v>18</v>
       </c>
-      <c r="F383" t="s">
+      <c r="F383" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G383" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H383" t="s">
         <v>29</v>
@@ -23211,20 +23227,20 @@
       <c r="B384" t="s">
         <v>18</v>
       </c>
-      <c r="C384" t="s">
-        <v>18</v>
+      <c r="C384" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D384" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E384" t="s">
         <v>18</v>
       </c>
-      <c r="F384" t="s">
-        <v>18</v>
+      <c r="F384" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G384" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H384" t="s">
         <v>29</v>
@@ -23270,19 +23286,19 @@
       <c r="B385" t="s">
         <v>18</v>
       </c>
-      <c r="C385" t="s">
-        <v>18</v>
-      </c>
-      <c r="D385" t="s">
+      <c r="C385" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D385" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E385" t="s">
         <v>18</v>
       </c>
-      <c r="F385" t="s">
-        <v>18</v>
-      </c>
-      <c r="G385" t="s">
+      <c r="F385" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G385" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H385" t="s">
@@ -23332,8 +23348,8 @@
       <c r="C386" t="s">
         <v>18</v>
       </c>
-      <c r="D386" t="s">
-        <v>18</v>
+      <c r="D386" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E386" t="s">
         <v>18</v>
@@ -23341,8 +23357,8 @@
       <c r="F386" t="s">
         <v>18</v>
       </c>
-      <c r="G386" t="s">
-        <v>18</v>
+      <c r="G386" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H386" t="s">
         <v>18</v>
@@ -23391,8 +23407,8 @@
       <c r="C387" t="s">
         <v>18</v>
       </c>
-      <c r="D387" t="s">
-        <v>18</v>
+      <c r="D387" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E387" t="s">
         <v>18</v>
@@ -23400,8 +23416,8 @@
       <c r="F387" t="s">
         <v>18</v>
       </c>
-      <c r="G387" t="s">
-        <v>18</v>
+      <c r="G387" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H387" t="s">
         <v>18</v>
@@ -23444,23 +23460,23 @@
       <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C388" t="s">
         <v>18</v>
       </c>
-      <c r="D388" t="s">
-        <v>18</v>
-      </c>
-      <c r="E388" t="s">
+      <c r="D388" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E388" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F388" t="s">
         <v>18</v>
       </c>
-      <c r="G388" t="s">
-        <v>18</v>
+      <c r="G388" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H388" t="s">
         <v>18</v>
@@ -23503,22 +23519,22 @@
       <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C389" t="s">
         <v>18</v>
       </c>
-      <c r="D389" t="s">
-        <v>18</v>
-      </c>
-      <c r="E389" t="s">
+      <c r="D389" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E389" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F389" t="s">
         <v>18</v>
       </c>
-      <c r="G389" t="s">
+      <c r="G389" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H389" t="s">
@@ -23562,20 +23578,20 @@
       <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C390" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D390" t="s">
         <v>18</v>
       </c>
-      <c r="E390" t="s">
+      <c r="E390" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F390" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G390" t="s">
         <v>18</v>
@@ -23621,19 +23637,19 @@
       <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D391" t="s">
         <v>18</v>
       </c>
-      <c r="E391" t="s">
+      <c r="E391" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F391" t="s">
+      <c r="F391" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G391" t="s">
@@ -23681,22 +23697,22 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
+        <v>18</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C392" t="s">
-        <v>19</v>
-      </c>
       <c r="D392" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E392" t="s">
+        <v>18</v>
+      </c>
+      <c r="F392" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F392" t="s">
-        <v>28</v>
-      </c>
       <c r="G392" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H392" t="s">
         <v>29</v>
@@ -23740,22 +23756,22 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
+        <v>18</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C393" t="s">
-        <v>19</v>
-      </c>
       <c r="D393" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E393" t="s">
+        <v>18</v>
+      </c>
+      <c r="F393" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F393" t="s">
-        <v>28</v>
-      </c>
       <c r="G393" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H393" t="s">
         <v>29</v>
@@ -23801,19 +23817,19 @@
       <c r="B394" t="s">
         <v>18</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E394" t="s">
         <v>18</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F394" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G394" t="s">
+      <c r="G394" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H394" t="s">
@@ -23861,18 +23877,18 @@
         <v>18</v>
       </c>
       <c r="C395" t="s">
+        <v>18</v>
+      </c>
+      <c r="D395" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D395" t="s">
-        <v>19</v>
-      </c>
       <c r="E395" t="s">
         <v>18</v>
       </c>
       <c r="F395" t="s">
-        <v>28</v>
-      </c>
-      <c r="G395" t="s">
+        <v>18</v>
+      </c>
+      <c r="G395" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H395" t="s">
@@ -23922,7 +23938,7 @@
       <c r="C396" t="s">
         <v>18</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E396" t="s">
@@ -23931,7 +23947,7 @@
       <c r="F396" t="s">
         <v>18</v>
       </c>
-      <c r="G396" t="s">
+      <c r="G396" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H396" t="s">
@@ -23975,22 +23991,22 @@
       <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B397" t="s">
-        <v>18</v>
+      <c r="B397" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C397" t="s">
         <v>18</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E397" t="s">
-        <v>18</v>
+      <c r="E397" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F397" t="s">
         <v>18</v>
       </c>
-      <c r="G397" t="s">
+      <c r="G397" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H397" t="s">
@@ -24034,22 +24050,22 @@
       <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398" t="s">
-        <v>18</v>
+      <c r="B398" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C398" t="s">
         <v>18</v>
       </c>
-      <c r="D398" t="s">
-        <v>18</v>
-      </c>
-      <c r="E398" t="s">
-        <v>18</v>
+      <c r="D398" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F398" t="s">
         <v>18</v>
       </c>
-      <c r="G398" t="s">
+      <c r="G398" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H398" t="s">
@@ -24093,8 +24109,8 @@
       <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399" t="s">
-        <v>18</v>
+      <c r="B399" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C399" t="s">
         <v>18</v>
@@ -24102,8 +24118,8 @@
       <c r="D399" t="s">
         <v>18</v>
       </c>
-      <c r="E399" t="s">
-        <v>18</v>
+      <c r="E399" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F399" t="s">
         <v>18</v>
@@ -24152,20 +24168,20 @@
       <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C400" t="s">
-        <v>18</v>
+      <c r="C400" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D400" t="s">
         <v>18</v>
       </c>
-      <c r="E400" t="s">
+      <c r="E400" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F400" t="s">
-        <v>18</v>
+      <c r="F400" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G400" t="s">
         <v>18</v>
@@ -24212,19 +24228,19 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C401" t="s">
-        <v>18</v>
-      </c>
       <c r="D401" t="s">
         <v>18</v>
       </c>
       <c r="E401" t="s">
+        <v>18</v>
+      </c>
+      <c r="F401" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F401" t="s">
-        <v>18</v>
       </c>
       <c r="G401" t="s">
         <v>18</v>
@@ -24271,18 +24287,18 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
+        <v>18</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C402" t="s">
-        <v>19</v>
-      </c>
       <c r="D402" t="s">
         <v>18</v>
       </c>
       <c r="E402" t="s">
-        <v>28</v>
-      </c>
-      <c r="F402" t="s">
+        <v>18</v>
+      </c>
+      <c r="F402" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G402" t="s">
@@ -24330,22 +24346,22 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
+        <v>18</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C403" t="s">
+      <c r="D403" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D403" t="s">
-        <v>18</v>
-      </c>
       <c r="E403" t="s">
+        <v>18</v>
+      </c>
+      <c r="F403" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F403" t="s">
+      <c r="G403" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G403" t="s">
-        <v>18</v>
       </c>
       <c r="H403" t="s">
         <v>18</v>
@@ -24389,21 +24405,21 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
+        <v>18</v>
+      </c>
+      <c r="C404" t="s">
+        <v>18</v>
+      </c>
+      <c r="D404" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C404" t="s">
-        <v>19</v>
-      </c>
-      <c r="D404" t="s">
-        <v>19</v>
-      </c>
       <c r="E404" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F404" t="s">
-        <v>28</v>
-      </c>
-      <c r="G404" t="s">
+        <v>18</v>
+      </c>
+      <c r="G404" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H404" t="s">
@@ -24448,21 +24464,21 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
+        <v>18</v>
+      </c>
+      <c r="C405" t="s">
+        <v>18</v>
+      </c>
+      <c r="D405" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C405" t="s">
-        <v>19</v>
-      </c>
-      <c r="D405" t="s">
-        <v>19</v>
-      </c>
       <c r="E405" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F405" t="s">
-        <v>28</v>
-      </c>
-      <c r="G405" t="s">
+        <v>18</v>
+      </c>
+      <c r="G405" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H405" t="s">
@@ -24506,22 +24522,22 @@
       <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B406" t="s">
-        <v>18</v>
+      <c r="B406" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C406" t="s">
+        <v>18</v>
+      </c>
+      <c r="D406" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D406" t="s">
-        <v>19</v>
-      </c>
-      <c r="E406" t="s">
-        <v>18</v>
+      <c r="E406" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F406" t="s">
-        <v>28</v>
-      </c>
-      <c r="G406" t="s">
+        <v>18</v>
+      </c>
+      <c r="G406" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H406" t="s">
@@ -24565,23 +24581,23 @@
       <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B407" t="s">
-        <v>18</v>
+      <c r="B407" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C407" t="s">
-        <v>19</v>
-      </c>
-      <c r="D407" t="s">
-        <v>19</v>
-      </c>
-      <c r="E407" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F407" t="s">
-        <v>28</v>
-      </c>
-      <c r="G407" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G407" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H407" t="s">
         <v>29</v>
@@ -24624,23 +24640,23 @@
       <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B408" t="s">
-        <v>18</v>
+      <c r="B408" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C408" t="s">
         <v>18</v>
       </c>
       <c r="D408" t="s">
-        <v>19</v>
-      </c>
-      <c r="E408" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F408" t="s">
         <v>18</v>
       </c>
       <c r="G408" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H408" t="s">
         <v>18</v>
@@ -24683,23 +24699,23 @@
       <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B409" t="s">
-        <v>18</v>
-      </c>
-      <c r="C409" t="s">
-        <v>18</v>
+      <c r="B409" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D409" t="s">
-        <v>19</v>
-      </c>
-      <c r="E409" t="s">
-        <v>18</v>
-      </c>
-      <c r="F409" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G409" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H409" t="s">
         <v>18</v>
@@ -24745,8 +24761,8 @@
       <c r="B410" t="s">
         <v>18</v>
       </c>
-      <c r="C410" t="s">
-        <v>18</v>
+      <c r="C410" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D410" t="s">
         <v>18</v>
@@ -24754,8 +24770,8 @@
       <c r="E410" t="s">
         <v>18</v>
       </c>
-      <c r="F410" t="s">
-        <v>18</v>
+      <c r="F410" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G410" t="s">
         <v>18</v>
@@ -24804,8 +24820,8 @@
       <c r="B411" t="s">
         <v>18</v>
       </c>
-      <c r="C411" t="s">
-        <v>18</v>
+      <c r="C411" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D411" t="s">
         <v>18</v>
@@ -24813,8 +24829,8 @@
       <c r="E411" t="s">
         <v>18</v>
       </c>
-      <c r="F411" t="s">
-        <v>18</v>
+      <c r="F411" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G411" t="s">
         <v>18</v>
@@ -24861,22 +24877,22 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
+        <v>18</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C412" t="s">
-        <v>18</v>
-      </c>
-      <c r="D412" t="s">
-        <v>18</v>
+      <c r="D412" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E412" t="s">
+        <v>18</v>
+      </c>
+      <c r="F412" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F412" t="s">
-        <v>18</v>
-      </c>
-      <c r="G412" t="s">
-        <v>18</v>
+      <c r="G412" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H412" t="s">
         <v>29</v>
@@ -24920,22 +24936,22 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
+        <v>18</v>
+      </c>
+      <c r="C413" t="s">
+        <v>18</v>
+      </c>
+      <c r="D413" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C413" t="s">
-        <v>18</v>
-      </c>
-      <c r="D413" t="s">
-        <v>18</v>
-      </c>
       <c r="E413" t="s">
+        <v>18</v>
+      </c>
+      <c r="F413" t="s">
+        <v>18</v>
+      </c>
+      <c r="G413" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F413" t="s">
-        <v>18</v>
-      </c>
-      <c r="G413" t="s">
-        <v>18</v>
       </c>
       <c r="H413" t="s">
         <v>29</v>
@@ -24979,22 +24995,22 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
+        <v>18</v>
+      </c>
+      <c r="C414" t="s">
+        <v>18</v>
+      </c>
+      <c r="D414" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C414" t="s">
-        <v>19</v>
-      </c>
-      <c r="D414" t="s">
-        <v>18</v>
-      </c>
       <c r="E414" t="s">
+        <v>18</v>
+      </c>
+      <c r="F414" t="s">
+        <v>18</v>
+      </c>
+      <c r="G414" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F414" t="s">
-        <v>28</v>
-      </c>
-      <c r="G414" t="s">
-        <v>18</v>
       </c>
       <c r="H414" t="s">
         <v>18</v>
@@ -25037,23 +25053,23 @@
       <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C415" t="s">
+        <v>18</v>
+      </c>
+      <c r="D415" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D415" t="s">
-        <v>18</v>
-      </c>
-      <c r="E415" t="s">
+      <c r="E415" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F415" t="s">
+        <v>18</v>
+      </c>
+      <c r="G415" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G415" t="s">
-        <v>18</v>
       </c>
       <c r="H415" t="s">
         <v>18</v>
@@ -25096,23 +25112,23 @@
       <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C416" t="s">
-        <v>19</v>
-      </c>
-      <c r="D416" t="s">
-        <v>19</v>
-      </c>
-      <c r="E416" t="s">
+        <v>18</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E416" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F416" t="s">
-        <v>28</v>
-      </c>
-      <c r="G416" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H416" t="s">
         <v>18</v>
@@ -25155,23 +25171,23 @@
       <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C417" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D417" t="s">
-        <v>19</v>
-      </c>
-      <c r="E417" t="s">
+        <v>18</v>
+      </c>
+      <c r="E417" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F417" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G417" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H417" t="s">
         <v>18</v>
@@ -25214,23 +25230,23 @@
       <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B418" t="s">
-        <v>18</v>
-      </c>
-      <c r="C418" t="s">
+      <c r="B418" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C418" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D418" t="s">
-        <v>19</v>
-      </c>
-      <c r="E418" t="s">
-        <v>18</v>
-      </c>
-      <c r="F418" t="s">
+        <v>18</v>
+      </c>
+      <c r="E418" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F418" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G418" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H418" t="s">
         <v>18</v>
@@ -25276,20 +25292,20 @@
       <c r="B419" t="s">
         <v>18</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D419" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E419" t="s">
         <v>18</v>
       </c>
-      <c r="F419" t="s">
+      <c r="F419" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G419" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H419" t="s">
         <v>18</v>
@@ -25335,20 +25351,20 @@
       <c r="B420" t="s">
         <v>18</v>
       </c>
-      <c r="C420" t="s">
-        <v>18</v>
+      <c r="C420" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D420" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E420" t="s">
         <v>18</v>
       </c>
-      <c r="F420" t="s">
-        <v>18</v>
+      <c r="F420" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G420" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H420" t="s">
         <v>18</v>
@@ -25394,19 +25410,19 @@
       <c r="B421" t="s">
         <v>18</v>
       </c>
-      <c r="C421" t="s">
-        <v>18</v>
-      </c>
-      <c r="D421" t="s">
+      <c r="C421" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D421" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E421" t="s">
         <v>18</v>
       </c>
-      <c r="F421" t="s">
-        <v>18</v>
-      </c>
-      <c r="G421" t="s">
+      <c r="F421" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G421" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H421" t="s">
@@ -25456,8 +25472,8 @@
       <c r="C422" t="s">
         <v>18</v>
       </c>
-      <c r="D422" t="s">
-        <v>18</v>
+      <c r="D422" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E422" t="s">
         <v>18</v>
@@ -25465,8 +25481,8 @@
       <c r="F422" t="s">
         <v>18</v>
       </c>
-      <c r="G422" t="s">
-        <v>18</v>
+      <c r="G422" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H422" t="s">
         <v>18</v>
@@ -25515,8 +25531,8 @@
       <c r="C423" t="s">
         <v>18</v>
       </c>
-      <c r="D423" t="s">
-        <v>18</v>
+      <c r="D423" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E423" t="s">
         <v>18</v>
@@ -25524,8 +25540,8 @@
       <c r="F423" t="s">
         <v>18</v>
       </c>
-      <c r="G423" t="s">
-        <v>18</v>
+      <c r="G423" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H423" t="s">
         <v>18</v>
@@ -25568,23 +25584,23 @@
       <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C424" t="s">
         <v>18</v>
       </c>
-      <c r="D424" t="s">
-        <v>18</v>
-      </c>
-      <c r="E424" t="s">
+      <c r="D424" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E424" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F424" t="s">
         <v>18</v>
       </c>
-      <c r="G424" t="s">
-        <v>18</v>
+      <c r="G424" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H424" t="s">
         <v>18</v>
@@ -25627,22 +25643,22 @@
       <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C425" t="s">
         <v>18</v>
       </c>
-      <c r="D425" t="s">
-        <v>18</v>
-      </c>
-      <c r="E425" t="s">
+      <c r="D425" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E425" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F425" t="s">
         <v>18</v>
       </c>
-      <c r="G425" t="s">
+      <c r="G425" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H425" t="s">
@@ -25686,20 +25702,20 @@
       <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C426" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D426" t="s">
         <v>18</v>
       </c>
-      <c r="E426" t="s">
+      <c r="E426" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F426" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G426" t="s">
         <v>18</v>
@@ -25745,19 +25761,19 @@
       <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D427" t="s">
         <v>18</v>
       </c>
-      <c r="E427" t="s">
+      <c r="E427" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F427" t="s">
+      <c r="F427" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G427" t="s">
@@ -25805,22 +25821,22 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
+        <v>18</v>
+      </c>
+      <c r="C428" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C428" t="s">
-        <v>19</v>
-      </c>
       <c r="D428" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E428" t="s">
+        <v>18</v>
+      </c>
+      <c r="F428" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F428" t="s">
-        <v>28</v>
-      </c>
       <c r="G428" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H428" t="s">
         <v>18</v>
@@ -25864,22 +25880,22 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
+        <v>18</v>
+      </c>
+      <c r="C429" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C429" t="s">
-        <v>19</v>
-      </c>
       <c r="D429" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E429" t="s">
+        <v>18</v>
+      </c>
+      <c r="F429" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F429" t="s">
-        <v>28</v>
-      </c>
       <c r="G429" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H429" t="s">
         <v>18</v>
@@ -25925,19 +25941,19 @@
       <c r="B430" t="s">
         <v>18</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D430" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E430" t="s">
         <v>18</v>
       </c>
-      <c r="F430" t="s">
+      <c r="F430" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G430" t="s">
+      <c r="G430" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H430" t="s">
@@ -25985,18 +26001,18 @@
         <v>18</v>
       </c>
       <c r="C431" t="s">
+        <v>18</v>
+      </c>
+      <c r="D431" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D431" t="s">
-        <v>19</v>
-      </c>
       <c r="E431" t="s">
         <v>18</v>
       </c>
       <c r="F431" t="s">
-        <v>28</v>
-      </c>
-      <c r="G431" t="s">
+        <v>18</v>
+      </c>
+      <c r="G431" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H431" t="s">
@@ -26046,7 +26062,7 @@
       <c r="C432" t="s">
         <v>18</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D432" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E432" t="s">
@@ -26055,7 +26071,7 @@
       <c r="F432" t="s">
         <v>18</v>
       </c>
-      <c r="G432" t="s">
+      <c r="G432" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H432" t="s">
@@ -26099,22 +26115,22 @@
       <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433" t="s">
-        <v>18</v>
+      <c r="B433" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C433" t="s">
         <v>18</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D433" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E433" t="s">
-        <v>18</v>
+      <c r="E433" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F433" t="s">
         <v>18</v>
       </c>
-      <c r="G433" t="s">
+      <c r="G433" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H433" t="s">
@@ -26158,22 +26174,22 @@
       <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434" t="s">
-        <v>18</v>
+      <c r="B434" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C434" t="s">
         <v>18</v>
       </c>
-      <c r="D434" t="s">
-        <v>18</v>
-      </c>
-      <c r="E434" t="s">
-        <v>18</v>
+      <c r="D434" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F434" t="s">
         <v>18</v>
       </c>
-      <c r="G434" t="s">
+      <c r="G434" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H434" t="s">
@@ -26217,8 +26233,8 @@
       <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" t="s">
-        <v>18</v>
+      <c r="B435" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C435" t="s">
         <v>18</v>
@@ -26226,8 +26242,8 @@
       <c r="D435" t="s">
         <v>18</v>
       </c>
-      <c r="E435" t="s">
-        <v>18</v>
+      <c r="E435" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F435" t="s">
         <v>18</v>
@@ -26276,20 +26292,20 @@
       <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C436" t="s">
-        <v>18</v>
+      <c r="C436" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D436" t="s">
         <v>18</v>
       </c>
-      <c r="E436" t="s">
+      <c r="E436" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F436" t="s">
-        <v>18</v>
+      <c r="F436" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G436" t="s">
         <v>18</v>
@@ -26336,19 +26352,19 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
+        <v>18</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C437" t="s">
-        <v>18</v>
-      </c>
       <c r="D437" t="s">
         <v>18</v>
       </c>
       <c r="E437" t="s">
+        <v>18</v>
+      </c>
+      <c r="F437" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F437" t="s">
-        <v>18</v>
       </c>
       <c r="G437" t="s">
         <v>18</v>
@@ -26395,18 +26411,18 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
+        <v>18</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C438" t="s">
-        <v>19</v>
-      </c>
       <c r="D438" t="s">
         <v>18</v>
       </c>
       <c r="E438" t="s">
-        <v>28</v>
-      </c>
-      <c r="F438" t="s">
+        <v>18</v>
+      </c>
+      <c r="F438" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G438" t="s">
@@ -26454,22 +26470,22 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
+        <v>18</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C439" t="s">
+      <c r="D439" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D439" t="s">
-        <v>18</v>
-      </c>
       <c r="E439" t="s">
+        <v>18</v>
+      </c>
+      <c r="F439" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F439" t="s">
+      <c r="G439" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G439" t="s">
-        <v>18</v>
       </c>
       <c r="H439" t="s">
         <v>18</v>
@@ -26513,21 +26529,21 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
+        <v>18</v>
+      </c>
+      <c r="C440" t="s">
+        <v>18</v>
+      </c>
+      <c r="D440" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C440" t="s">
-        <v>19</v>
-      </c>
-      <c r="D440" t="s">
-        <v>19</v>
-      </c>
       <c r="E440" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F440" t="s">
-        <v>28</v>
-      </c>
-      <c r="G440" t="s">
+        <v>18</v>
+      </c>
+      <c r="G440" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H440" t="s">
@@ -26572,21 +26588,21 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
+        <v>18</v>
+      </c>
+      <c r="C441" t="s">
+        <v>18</v>
+      </c>
+      <c r="D441" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C441" t="s">
-        <v>19</v>
-      </c>
-      <c r="D441" t="s">
-        <v>19</v>
-      </c>
       <c r="E441" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F441" t="s">
-        <v>28</v>
-      </c>
-      <c r="G441" t="s">
+        <v>18</v>
+      </c>
+      <c r="G441" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H441" t="s">
@@ -26630,22 +26646,22 @@
       <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B442" t="s">
-        <v>18</v>
+      <c r="B442" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C442" t="s">
+        <v>18</v>
+      </c>
+      <c r="D442" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D442" t="s">
-        <v>19</v>
-      </c>
-      <c r="E442" t="s">
-        <v>18</v>
+      <c r="E442" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F442" t="s">
-        <v>28</v>
-      </c>
-      <c r="G442" t="s">
+        <v>18</v>
+      </c>
+      <c r="G442" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H442" t="s">
@@ -26689,23 +26705,23 @@
       <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B443" t="s">
-        <v>18</v>
+      <c r="B443" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C443" t="s">
-        <v>19</v>
-      </c>
-      <c r="D443" t="s">
-        <v>19</v>
-      </c>
-      <c r="E443" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F443" t="s">
-        <v>28</v>
-      </c>
-      <c r="G443" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H443" t="s">
         <v>29</v>
@@ -26748,23 +26764,23 @@
       <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B444" t="s">
-        <v>18</v>
+      <c r="B444" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C444" t="s">
         <v>18</v>
       </c>
       <c r="D444" t="s">
-        <v>19</v>
-      </c>
-      <c r="E444" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F444" t="s">
         <v>18</v>
       </c>
       <c r="G444" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H444" t="s">
         <v>18</v>
@@ -26807,23 +26823,23 @@
       <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B445" t="s">
-        <v>18</v>
-      </c>
-      <c r="C445" t="s">
-        <v>18</v>
+      <c r="B445" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D445" t="s">
-        <v>19</v>
-      </c>
-      <c r="E445" t="s">
-        <v>18</v>
-      </c>
-      <c r="F445" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G445" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H445" t="s">
         <v>18</v>
@@ -26869,8 +26885,8 @@
       <c r="B446" t="s">
         <v>18</v>
       </c>
-      <c r="C446" t="s">
-        <v>18</v>
+      <c r="C446" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D446" t="s">
         <v>18</v>
@@ -26878,8 +26894,8 @@
       <c r="E446" t="s">
         <v>18</v>
       </c>
-      <c r="F446" t="s">
-        <v>18</v>
+      <c r="F446" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G446" t="s">
         <v>18</v>
@@ -26928,8 +26944,8 @@
       <c r="B447" t="s">
         <v>18</v>
       </c>
-      <c r="C447" t="s">
-        <v>18</v>
+      <c r="C447" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D447" t="s">
         <v>18</v>
@@ -26937,8 +26953,8 @@
       <c r="E447" t="s">
         <v>18</v>
       </c>
-      <c r="F447" t="s">
-        <v>18</v>
+      <c r="F447" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G447" t="s">
         <v>18</v>
@@ -26985,22 +27001,22 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
+        <v>18</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C448" t="s">
-        <v>18</v>
-      </c>
-      <c r="D448" t="s">
-        <v>18</v>
+      <c r="D448" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E448" t="s">
+        <v>18</v>
+      </c>
+      <c r="F448" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F448" t="s">
-        <v>18</v>
-      </c>
-      <c r="G448" t="s">
-        <v>18</v>
+      <c r="G448" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H448" t="s">
         <v>18</v>
@@ -27044,22 +27060,22 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
+        <v>18</v>
+      </c>
+      <c r="C449" t="s">
+        <v>18</v>
+      </c>
+      <c r="D449" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C449" t="s">
-        <v>18</v>
-      </c>
-      <c r="D449" t="s">
-        <v>18</v>
-      </c>
       <c r="E449" t="s">
+        <v>18</v>
+      </c>
+      <c r="F449" t="s">
+        <v>18</v>
+      </c>
+      <c r="G449" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F449" t="s">
-        <v>18</v>
-      </c>
-      <c r="G449" t="s">
-        <v>18</v>
       </c>
       <c r="H449" t="s">
         <v>18</v>
@@ -27103,22 +27119,22 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
+        <v>18</v>
+      </c>
+      <c r="C450" t="s">
+        <v>18</v>
+      </c>
+      <c r="D450" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C450" t="s">
-        <v>19</v>
-      </c>
-      <c r="D450" t="s">
-        <v>18</v>
-      </c>
       <c r="E450" t="s">
+        <v>18</v>
+      </c>
+      <c r="F450" t="s">
+        <v>18</v>
+      </c>
+      <c r="G450" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F450" t="s">
-        <v>28</v>
-      </c>
-      <c r="G450" t="s">
-        <v>18</v>
       </c>
       <c r="H450" t="s">
         <v>29</v>
@@ -27161,23 +27177,23 @@
       <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C451" t="s">
+        <v>18</v>
+      </c>
+      <c r="D451" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D451" t="s">
-        <v>18</v>
-      </c>
-      <c r="E451" t="s">
+      <c r="E451" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F451" t="s">
+        <v>18</v>
+      </c>
+      <c r="G451" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G451" t="s">
-        <v>18</v>
       </c>
       <c r="H451" t="s">
         <v>29</v>
@@ -27220,23 +27236,23 @@
       <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C452" t="s">
-        <v>19</v>
-      </c>
-      <c r="D452" t="s">
-        <v>19</v>
-      </c>
-      <c r="E452" t="s">
+        <v>18</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E452" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F452" t="s">
-        <v>28</v>
-      </c>
-      <c r="G452" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H452" t="s">
         <v>29</v>
@@ -27279,23 +27295,23 @@
       <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C453" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D453" t="s">
-        <v>19</v>
-      </c>
-      <c r="E453" t="s">
+        <v>18</v>
+      </c>
+      <c r="E453" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F453" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G453" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H453" t="s">
         <v>18</v>
@@ -27338,23 +27354,23 @@
       <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454" t="s">
-        <v>18</v>
-      </c>
-      <c r="C454" t="s">
+      <c r="B454" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C454" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D454" t="s">
-        <v>19</v>
-      </c>
-      <c r="E454" t="s">
-        <v>18</v>
-      </c>
-      <c r="F454" t="s">
+        <v>18</v>
+      </c>
+      <c r="E454" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F454" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G454" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H454" t="s">
         <v>18</v>
@@ -27400,20 +27416,20 @@
       <c r="B455" t="s">
         <v>18</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D455" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E455" t="s">
         <v>18</v>
       </c>
-      <c r="F455" t="s">
+      <c r="F455" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G455" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H455" t="s">
         <v>18</v>
@@ -27459,20 +27475,20 @@
       <c r="B456" t="s">
         <v>18</v>
       </c>
-      <c r="C456" t="s">
-        <v>18</v>
+      <c r="C456" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D456" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E456" t="s">
         <v>18</v>
       </c>
-      <c r="F456" t="s">
-        <v>18</v>
+      <c r="F456" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G456" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H456" t="s">
         <v>18</v>
@@ -27518,19 +27534,19 @@
       <c r="B457" t="s">
         <v>18</v>
       </c>
-      <c r="C457" t="s">
-        <v>18</v>
-      </c>
-      <c r="D457" t="s">
+      <c r="C457" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D457" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E457" t="s">
         <v>18</v>
       </c>
-      <c r="F457" t="s">
-        <v>18</v>
-      </c>
-      <c r="G457" t="s">
+      <c r="F457" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G457" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H457" t="s">
@@ -27580,8 +27596,8 @@
       <c r="C458" t="s">
         <v>18</v>
       </c>
-      <c r="D458" t="s">
-        <v>18</v>
+      <c r="D458" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E458" t="s">
         <v>18</v>
@@ -27589,8 +27605,8 @@
       <c r="F458" t="s">
         <v>18</v>
       </c>
-      <c r="G458" t="s">
-        <v>18</v>
+      <c r="G458" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H458" t="s">
         <v>18</v>
@@ -27639,8 +27655,8 @@
       <c r="C459" t="s">
         <v>18</v>
       </c>
-      <c r="D459" t="s">
-        <v>18</v>
+      <c r="D459" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E459" t="s">
         <v>18</v>
@@ -27648,8 +27664,8 @@
       <c r="F459" t="s">
         <v>18</v>
       </c>
-      <c r="G459" t="s">
-        <v>18</v>
+      <c r="G459" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H459" t="s">
         <v>18</v>
@@ -27692,23 +27708,23 @@
       <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C460" t="s">
         <v>18</v>
       </c>
-      <c r="D460" t="s">
-        <v>18</v>
-      </c>
-      <c r="E460" t="s">
+      <c r="D460" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E460" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F460" t="s">
         <v>18</v>
       </c>
-      <c r="G460" t="s">
-        <v>18</v>
+      <c r="G460" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H460" t="s">
         <v>29</v>
@@ -27751,22 +27767,22 @@
       <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C461" t="s">
         <v>18</v>
       </c>
-      <c r="D461" t="s">
-        <v>18</v>
-      </c>
-      <c r="E461" t="s">
+      <c r="D461" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E461" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F461" t="s">
         <v>18</v>
       </c>
-      <c r="G461" t="s">
+      <c r="G461" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H461" t="s">
@@ -27810,20 +27826,20 @@
       <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C462" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D462" t="s">
         <v>18</v>
       </c>
-      <c r="E462" t="s">
+      <c r="E462" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F462" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G462" t="s">
         <v>18</v>
@@ -27869,19 +27885,19 @@
       <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C463" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D463" t="s">
         <v>18</v>
       </c>
-      <c r="E463" t="s">
+      <c r="E463" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F463" t="s">
+      <c r="F463" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G463" t="s">
@@ -27929,22 +27945,22 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
+        <v>18</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C464" t="s">
-        <v>19</v>
-      </c>
       <c r="D464" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E464" t="s">
+        <v>18</v>
+      </c>
+      <c r="F464" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F464" t="s">
-        <v>28</v>
-      </c>
       <c r="G464" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H464" t="s">
         <v>18</v>
@@ -27988,22 +28004,22 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
+        <v>18</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C465" t="s">
-        <v>19</v>
-      </c>
       <c r="D465" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E465" t="s">
+        <v>18</v>
+      </c>
+      <c r="F465" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F465" t="s">
-        <v>28</v>
-      </c>
       <c r="G465" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H465" t="s">
         <v>18</v>
@@ -28049,19 +28065,19 @@
       <c r="B466" t="s">
         <v>18</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C466" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D466" t="s">
+      <c r="D466" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E466" t="s">
         <v>18</v>
       </c>
-      <c r="F466" t="s">
+      <c r="F466" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G466" t="s">
+      <c r="G466" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H466" t="s">
@@ -28109,18 +28125,18 @@
         <v>18</v>
       </c>
       <c r="C467" t="s">
+        <v>18</v>
+      </c>
+      <c r="D467" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D467" t="s">
-        <v>19</v>
-      </c>
       <c r="E467" t="s">
         <v>18</v>
       </c>
       <c r="F467" t="s">
-        <v>28</v>
-      </c>
-      <c r="G467" t="s">
+        <v>18</v>
+      </c>
+      <c r="G467" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H467" t="s">
@@ -28170,7 +28186,7 @@
       <c r="C468" t="s">
         <v>18</v>
       </c>
-      <c r="D468" t="s">
+      <c r="D468" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E468" t="s">
@@ -28179,7 +28195,7 @@
       <c r="F468" t="s">
         <v>18</v>
       </c>
-      <c r="G468" t="s">
+      <c r="G468" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H468" t="s">
@@ -28223,22 +28239,22 @@
       <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469" t="s">
-        <v>18</v>
+      <c r="B469" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C469" t="s">
         <v>18</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D469" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E469" t="s">
-        <v>18</v>
+      <c r="E469" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F469" t="s">
         <v>18</v>
       </c>
-      <c r="G469" t="s">
+      <c r="G469" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H469" t="s">
@@ -28282,22 +28298,22 @@
       <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470" t="s">
-        <v>18</v>
+      <c r="B470" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C470" t="s">
         <v>18</v>
       </c>
-      <c r="D470" t="s">
-        <v>18</v>
-      </c>
-      <c r="E470" t="s">
-        <v>18</v>
+      <c r="D470" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F470" t="s">
         <v>18</v>
       </c>
-      <c r="G470" t="s">
+      <c r="G470" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H470" t="s">
@@ -28341,8 +28357,8 @@
       <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471" t="s">
-        <v>18</v>
+      <c r="B471" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C471" t="s">
         <v>18</v>
@@ -28350,8 +28366,8 @@
       <c r="D471" t="s">
         <v>18</v>
       </c>
-      <c r="E471" t="s">
-        <v>18</v>
+      <c r="E471" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F471" t="s">
         <v>18</v>
@@ -28400,20 +28416,20 @@
       <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C472" t="s">
-        <v>18</v>
+      <c r="C472" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D472" t="s">
         <v>18</v>
       </c>
-      <c r="E472" t="s">
+      <c r="E472" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F472" t="s">
-        <v>18</v>
+      <c r="F472" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G472" t="s">
         <v>18</v>
@@ -28460,19 +28476,19 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
+        <v>18</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C473" t="s">
-        <v>18</v>
-      </c>
       <c r="D473" t="s">
         <v>18</v>
       </c>
       <c r="E473" t="s">
+        <v>18</v>
+      </c>
+      <c r="F473" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F473" t="s">
-        <v>18</v>
       </c>
       <c r="G473" t="s">
         <v>18</v>
@@ -28519,18 +28535,18 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
+        <v>18</v>
+      </c>
+      <c r="C474" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C474" t="s">
-        <v>19</v>
-      </c>
       <c r="D474" t="s">
         <v>18</v>
       </c>
       <c r="E474" t="s">
-        <v>28</v>
-      </c>
-      <c r="F474" t="s">
+        <v>18</v>
+      </c>
+      <c r="F474" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G474" t="s">
@@ -28578,22 +28594,22 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
+        <v>18</v>
+      </c>
+      <c r="C475" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C475" t="s">
+      <c r="D475" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D475" t="s">
-        <v>18</v>
-      </c>
       <c r="E475" t="s">
+        <v>18</v>
+      </c>
+      <c r="F475" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F475" t="s">
+      <c r="G475" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G475" t="s">
-        <v>18</v>
       </c>
       <c r="H475" t="s">
         <v>18</v>
@@ -28637,21 +28653,21 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
+        <v>18</v>
+      </c>
+      <c r="C476" t="s">
+        <v>18</v>
+      </c>
+      <c r="D476" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C476" t="s">
-        <v>19</v>
-      </c>
-      <c r="D476" t="s">
-        <v>19</v>
-      </c>
       <c r="E476" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F476" t="s">
-        <v>28</v>
-      </c>
-      <c r="G476" t="s">
+        <v>18</v>
+      </c>
+      <c r="G476" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H476" t="s">
@@ -28696,21 +28712,21 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
+        <v>18</v>
+      </c>
+      <c r="C477" t="s">
+        <v>18</v>
+      </c>
+      <c r="D477" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C477" t="s">
-        <v>19</v>
-      </c>
-      <c r="D477" t="s">
-        <v>19</v>
-      </c>
       <c r="E477" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F477" t="s">
-        <v>28</v>
-      </c>
-      <c r="G477" t="s">
+        <v>18</v>
+      </c>
+      <c r="G477" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H477" t="s">
@@ -28754,22 +28770,22 @@
       <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478" t="s">
-        <v>18</v>
+      <c r="B478" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C478" t="s">
+        <v>18</v>
+      </c>
+      <c r="D478" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D478" t="s">
-        <v>19</v>
-      </c>
-      <c r="E478" t="s">
-        <v>18</v>
+      <c r="E478" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F478" t="s">
-        <v>28</v>
-      </c>
-      <c r="G478" t="s">
+        <v>18</v>
+      </c>
+      <c r="G478" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H478" t="s">
@@ -28813,23 +28829,23 @@
       <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479" t="s">
-        <v>18</v>
+      <c r="B479" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C479" t="s">
-        <v>19</v>
-      </c>
-      <c r="D479" t="s">
-        <v>19</v>
-      </c>
-      <c r="E479" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F479" t="s">
-        <v>28</v>
-      </c>
-      <c r="G479" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G479" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H479" t="s">
         <v>29</v>
@@ -28872,23 +28888,23 @@
       <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B480" t="s">
-        <v>18</v>
+      <c r="B480" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C480" t="s">
         <v>18</v>
       </c>
       <c r="D480" t="s">
-        <v>19</v>
-      </c>
-      <c r="E480" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F480" t="s">
         <v>18</v>
       </c>
       <c r="G480" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H480" t="s">
         <v>29</v>
@@ -28931,23 +28947,23 @@
       <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B481" t="s">
-        <v>18</v>
-      </c>
-      <c r="C481" t="s">
-        <v>18</v>
+      <c r="B481" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D481" t="s">
-        <v>19</v>
-      </c>
-      <c r="E481" t="s">
-        <v>18</v>
-      </c>
-      <c r="F481" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G481" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H481" t="s">
         <v>29</v>
@@ -28993,8 +29009,8 @@
       <c r="B482" t="s">
         <v>18</v>
       </c>
-      <c r="C482" t="s">
-        <v>18</v>
+      <c r="C482" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D482" t="s">
         <v>18</v>
@@ -29002,8 +29018,8 @@
       <c r="E482" t="s">
         <v>18</v>
       </c>
-      <c r="F482" t="s">
-        <v>18</v>
+      <c r="F482" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G482" t="s">
         <v>18</v>
@@ -29052,8 +29068,8 @@
       <c r="B483" t="s">
         <v>18</v>
       </c>
-      <c r="C483" t="s">
-        <v>18</v>
+      <c r="C483" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D483" t="s">
         <v>18</v>
@@ -29061,8 +29077,8 @@
       <c r="E483" t="s">
         <v>18</v>
       </c>
-      <c r="F483" t="s">
-        <v>18</v>
+      <c r="F483" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G483" t="s">
         <v>18</v>
@@ -29109,22 +29125,22 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
+        <v>18</v>
+      </c>
+      <c r="C484" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C484" t="s">
-        <v>18</v>
-      </c>
-      <c r="D484" t="s">
-        <v>18</v>
+      <c r="D484" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E484" t="s">
+        <v>18</v>
+      </c>
+      <c r="F484" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F484" t="s">
-        <v>18</v>
-      </c>
-      <c r="G484" t="s">
-        <v>18</v>
+      <c r="G484" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H484" t="s">
         <v>18</v>
@@ -29168,22 +29184,22 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
+        <v>18</v>
+      </c>
+      <c r="C485" t="s">
+        <v>18</v>
+      </c>
+      <c r="D485" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C485" t="s">
-        <v>18</v>
-      </c>
-      <c r="D485" t="s">
-        <v>18</v>
-      </c>
       <c r="E485" t="s">
+        <v>18</v>
+      </c>
+      <c r="F485" t="s">
+        <v>18</v>
+      </c>
+      <c r="G485" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F485" t="s">
-        <v>18</v>
-      </c>
-      <c r="G485" t="s">
-        <v>18</v>
       </c>
       <c r="H485" t="s">
         <v>18</v>
@@ -29227,22 +29243,22 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
+        <v>18</v>
+      </c>
+      <c r="C486" t="s">
+        <v>18</v>
+      </c>
+      <c r="D486" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C486" t="s">
-        <v>19</v>
-      </c>
-      <c r="D486" t="s">
-        <v>18</v>
-      </c>
       <c r="E486" t="s">
+        <v>18</v>
+      </c>
+      <c r="F486" t="s">
+        <v>18</v>
+      </c>
+      <c r="G486" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F486" t="s">
-        <v>28</v>
-      </c>
-      <c r="G486" t="s">
-        <v>18</v>
       </c>
       <c r="H486" t="s">
         <v>18</v>
@@ -29285,23 +29301,23 @@
       <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C487" t="s">
+        <v>18</v>
+      </c>
+      <c r="D487" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D487" t="s">
-        <v>18</v>
-      </c>
-      <c r="E487" t="s">
+      <c r="E487" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F487" t="s">
+        <v>18</v>
+      </c>
+      <c r="G487" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G487" t="s">
-        <v>18</v>
       </c>
       <c r="H487" t="s">
         <v>29</v>
@@ -29344,23 +29360,23 @@
       <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C488" t="s">
-        <v>19</v>
-      </c>
-      <c r="D488" t="s">
-        <v>19</v>
-      </c>
-      <c r="E488" t="s">
+        <v>18</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E488" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F488" t="s">
-        <v>28</v>
-      </c>
-      <c r="G488" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G488" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H488" t="s">
         <v>29</v>
@@ -29403,23 +29419,23 @@
       <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C489" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D489" t="s">
-        <v>19</v>
-      </c>
-      <c r="E489" t="s">
+        <v>18</v>
+      </c>
+      <c r="E489" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F489" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G489" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H489" t="s">
         <v>29</v>
@@ -29462,23 +29478,23 @@
       <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490" t="s">
-        <v>18</v>
-      </c>
-      <c r="C490" t="s">
+      <c r="B490" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C490" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D490" t="s">
-        <v>19</v>
-      </c>
-      <c r="E490" t="s">
-        <v>18</v>
-      </c>
-      <c r="F490" t="s">
+        <v>18</v>
+      </c>
+      <c r="E490" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F490" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G490" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H490" t="s">
         <v>18</v>
@@ -29524,20 +29540,20 @@
       <c r="B491" t="s">
         <v>18</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C491" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D491" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E491" t="s">
         <v>18</v>
       </c>
-      <c r="F491" t="s">
+      <c r="F491" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G491" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H491" t="s">
         <v>18</v>
@@ -29583,20 +29599,20 @@
       <c r="B492" t="s">
         <v>18</v>
       </c>
-      <c r="C492" t="s">
-        <v>18</v>
+      <c r="C492" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D492" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E492" t="s">
         <v>18</v>
       </c>
-      <c r="F492" t="s">
-        <v>18</v>
+      <c r="F492" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G492" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H492" t="s">
         <v>18</v>
@@ -29642,19 +29658,19 @@
       <c r="B493" t="s">
         <v>18</v>
       </c>
-      <c r="C493" t="s">
-        <v>18</v>
-      </c>
-      <c r="D493" t="s">
+      <c r="C493" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D493" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E493" t="s">
         <v>18</v>
       </c>
-      <c r="F493" t="s">
-        <v>18</v>
-      </c>
-      <c r="G493" t="s">
+      <c r="F493" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G493" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H493" t="s">
@@ -29704,8 +29720,8 @@
       <c r="C494" t="s">
         <v>18</v>
       </c>
-      <c r="D494" t="s">
-        <v>18</v>
+      <c r="D494" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E494" t="s">
         <v>18</v>
@@ -29713,8 +29729,8 @@
       <c r="F494" t="s">
         <v>18</v>
       </c>
-      <c r="G494" t="s">
-        <v>18</v>
+      <c r="G494" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H494" t="s">
         <v>18</v>
@@ -29763,8 +29779,8 @@
       <c r="C495" t="s">
         <v>18</v>
       </c>
-      <c r="D495" t="s">
-        <v>18</v>
+      <c r="D495" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E495" t="s">
         <v>18</v>
@@ -29772,8 +29788,8 @@
       <c r="F495" t="s">
         <v>18</v>
       </c>
-      <c r="G495" t="s">
-        <v>18</v>
+      <c r="G495" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H495" t="s">
         <v>18</v>
@@ -29816,23 +29832,23 @@
       <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C496" t="s">
         <v>18</v>
       </c>
-      <c r="D496" t="s">
-        <v>18</v>
-      </c>
-      <c r="E496" t="s">
+      <c r="D496" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E496" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F496" t="s">
         <v>18</v>
       </c>
-      <c r="G496" t="s">
-        <v>18</v>
+      <c r="G496" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H496" t="s">
         <v>18</v>
@@ -29875,22 +29891,22 @@
       <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C497" t="s">
         <v>18</v>
       </c>
-      <c r="D497" t="s">
-        <v>18</v>
-      </c>
-      <c r="E497" t="s">
+      <c r="D497" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E497" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F497" t="s">
         <v>18</v>
       </c>
-      <c r="G497" t="s">
+      <c r="G497" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H497" t="s">
@@ -29934,20 +29950,20 @@
       <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C498" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D498" t="s">
         <v>18</v>
       </c>
-      <c r="E498" t="s">
+      <c r="E498" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F498" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G498" t="s">
         <v>18</v>
@@ -29993,19 +30009,19 @@
       <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C499" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D499" t="s">
         <v>18</v>
       </c>
-      <c r="E499" t="s">
+      <c r="E499" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F499" t="s">
+      <c r="F499" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G499" t="s">
@@ -30053,22 +30069,22 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
+        <v>18</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C500" t="s">
-        <v>19</v>
-      </c>
       <c r="D500" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E500" t="s">
+        <v>18</v>
+      </c>
+      <c r="F500" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F500" t="s">
-        <v>28</v>
-      </c>
       <c r="G500" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H500" t="s">
         <v>29</v>
@@ -30112,22 +30128,22 @@
         <v>499</v>
       </c>
       <c r="B501" t="s">
+        <v>18</v>
+      </c>
+      <c r="C501" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C501" t="s">
-        <v>19</v>
-      </c>
       <c r="D501" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E501" t="s">
+        <v>18</v>
+      </c>
+      <c r="F501" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F501" t="s">
-        <v>28</v>
-      </c>
       <c r="G501" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H501" t="s">
         <v>29</v>
@@ -30173,19 +30189,19 @@
       <c r="B502" t="s">
         <v>18</v>
       </c>
-      <c r="C502" t="s">
+      <c r="C502" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D502" t="s">
+      <c r="D502" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E502" t="s">
         <v>18</v>
       </c>
-      <c r="F502" t="s">
+      <c r="F502" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G502" t="s">
+      <c r="G502" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H502" t="s">
@@ -30233,18 +30249,18 @@
         <v>18</v>
       </c>
       <c r="C503" t="s">
+        <v>18</v>
+      </c>
+      <c r="D503" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D503" t="s">
-        <v>19</v>
-      </c>
       <c r="E503" t="s">
         <v>18</v>
       </c>
       <c r="F503" t="s">
-        <v>28</v>
-      </c>
-      <c r="G503" t="s">
+        <v>18</v>
+      </c>
+      <c r="G503" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H503" t="s">
@@ -30294,7 +30310,7 @@
       <c r="C504" t="s">
         <v>18</v>
       </c>
-      <c r="D504" t="s">
+      <c r="D504" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E504" t="s">
@@ -30303,7 +30319,7 @@
       <c r="F504" t="s">
         <v>18</v>
       </c>
-      <c r="G504" t="s">
+      <c r="G504" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H504" t="s">
@@ -30347,22 +30363,22 @@
       <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505" t="s">
-        <v>18</v>
+      <c r="B505" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C505" t="s">
         <v>18</v>
       </c>
-      <c r="D505" t="s">
+      <c r="D505" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E505" t="s">
-        <v>18</v>
+      <c r="E505" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F505" t="s">
         <v>18</v>
       </c>
-      <c r="G505" t="s">
+      <c r="G505" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H505" t="s">
@@ -30406,22 +30422,22 @@
       <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506" t="s">
-        <v>18</v>
+      <c r="B506" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C506" t="s">
         <v>18</v>
       </c>
-      <c r="D506" t="s">
-        <v>18</v>
-      </c>
-      <c r="E506" t="s">
-        <v>18</v>
+      <c r="D506" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F506" t="s">
         <v>18</v>
       </c>
-      <c r="G506" t="s">
+      <c r="G506" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H506" t="s">
@@ -30465,8 +30481,8 @@
       <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507" t="s">
-        <v>18</v>
+      <c r="B507" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C507" t="s">
         <v>18</v>
@@ -30474,8 +30490,8 @@
       <c r="D507" t="s">
         <v>18</v>
       </c>
-      <c r="E507" t="s">
-        <v>18</v>
+      <c r="E507" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F507" t="s">
         <v>18</v>
@@ -30524,20 +30540,20 @@
       <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C508" t="s">
-        <v>18</v>
+      <c r="C508" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D508" t="s">
         <v>18</v>
       </c>
-      <c r="E508" t="s">
+      <c r="E508" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F508" t="s">
-        <v>18</v>
+      <c r="F508" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G508" t="s">
         <v>18</v>
@@ -30584,19 +30600,19 @@
         <v>507</v>
       </c>
       <c r="B509" t="s">
+        <v>18</v>
+      </c>
+      <c r="C509" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C509" t="s">
-        <v>18</v>
-      </c>
       <c r="D509" t="s">
         <v>18</v>
       </c>
       <c r="E509" t="s">
+        <v>18</v>
+      </c>
+      <c r="F509" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F509" t="s">
-        <v>18</v>
       </c>
       <c r="G509" t="s">
         <v>18</v>
@@ -30643,18 +30659,18 @@
         <v>508</v>
       </c>
       <c r="B510" t="s">
+        <v>18</v>
+      </c>
+      <c r="C510" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C510" t="s">
-        <v>19</v>
-      </c>
       <c r="D510" t="s">
         <v>18</v>
       </c>
       <c r="E510" t="s">
-        <v>28</v>
-      </c>
-      <c r="F510" t="s">
+        <v>18</v>
+      </c>
+      <c r="F510" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G510" t="s">
@@ -30702,22 +30718,22 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
+        <v>18</v>
+      </c>
+      <c r="C511" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C511" t="s">
+      <c r="D511" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D511" t="s">
-        <v>18</v>
-      </c>
       <c r="E511" t="s">
+        <v>18</v>
+      </c>
+      <c r="F511" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F511" t="s">
+      <c r="G511" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G511" t="s">
-        <v>18</v>
       </c>
       <c r="H511" t="s">
         <v>18</v>
@@ -30761,21 +30777,21 @@
         <v>510</v>
       </c>
       <c r="B512" t="s">
+        <v>18</v>
+      </c>
+      <c r="C512" t="s">
+        <v>18</v>
+      </c>
+      <c r="D512" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C512" t="s">
-        <v>19</v>
-      </c>
-      <c r="D512" t="s">
-        <v>19</v>
-      </c>
       <c r="E512" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F512" t="s">
-        <v>28</v>
-      </c>
-      <c r="G512" t="s">
+        <v>18</v>
+      </c>
+      <c r="G512" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H512" t="s">
@@ -30820,21 +30836,21 @@
         <v>511</v>
       </c>
       <c r="B513" t="s">
+        <v>18</v>
+      </c>
+      <c r="C513" t="s">
+        <v>18</v>
+      </c>
+      <c r="D513" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C513" t="s">
-        <v>19</v>
-      </c>
-      <c r="D513" t="s">
-        <v>19</v>
-      </c>
       <c r="E513" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F513" t="s">
-        <v>28</v>
-      </c>
-      <c r="G513" t="s">
+        <v>18</v>
+      </c>
+      <c r="G513" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H513" t="s">
@@ -30878,22 +30894,22 @@
       <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514" t="s">
-        <v>18</v>
+      <c r="B514" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C514" t="s">
+        <v>18</v>
+      </c>
+      <c r="D514" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D514" t="s">
-        <v>19</v>
-      </c>
-      <c r="E514" t="s">
-        <v>18</v>
+      <c r="E514" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F514" t="s">
-        <v>28</v>
-      </c>
-      <c r="G514" t="s">
+        <v>18</v>
+      </c>
+      <c r="G514" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H514" t="s">
@@ -30937,23 +30953,23 @@
       <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515" t="s">
-        <v>18</v>
+      <c r="B515" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C515" t="s">
-        <v>19</v>
-      </c>
-      <c r="D515" t="s">
-        <v>19</v>
-      </c>
-      <c r="E515" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F515" t="s">
-        <v>28</v>
-      </c>
-      <c r="G515" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G515" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H515" t="s">
         <v>29</v>
@@ -30996,23 +31012,23 @@
       <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516" t="s">
-        <v>18</v>
+      <c r="B516" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C516" t="s">
         <v>18</v>
       </c>
       <c r="D516" t="s">
-        <v>19</v>
-      </c>
-      <c r="E516" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F516" t="s">
         <v>18</v>
       </c>
       <c r="G516" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H516" t="s">
         <v>18</v>
@@ -31055,23 +31071,23 @@
       <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517" t="s">
-        <v>18</v>
-      </c>
-      <c r="C517" t="s">
-        <v>18</v>
+      <c r="B517" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D517" t="s">
-        <v>19</v>
-      </c>
-      <c r="E517" t="s">
-        <v>18</v>
-      </c>
-      <c r="F517" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G517" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H517" t="s">
         <v>18</v>
@@ -31117,8 +31133,8 @@
       <c r="B518" t="s">
         <v>18</v>
       </c>
-      <c r="C518" t="s">
-        <v>18</v>
+      <c r="C518" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D518" t="s">
         <v>18</v>
@@ -31126,8 +31142,8 @@
       <c r="E518" t="s">
         <v>18</v>
       </c>
-      <c r="F518" t="s">
-        <v>18</v>
+      <c r="F518" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G518" t="s">
         <v>18</v>
@@ -31176,8 +31192,8 @@
       <c r="B519" t="s">
         <v>18</v>
       </c>
-      <c r="C519" t="s">
-        <v>18</v>
+      <c r="C519" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D519" t="s">
         <v>18</v>
@@ -31185,8 +31201,8 @@
       <c r="E519" t="s">
         <v>18</v>
       </c>
-      <c r="F519" t="s">
-        <v>18</v>
+      <c r="F519" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G519" t="s">
         <v>18</v>
@@ -31233,22 +31249,22 @@
         <v>518</v>
       </c>
       <c r="B520" t="s">
+        <v>18</v>
+      </c>
+      <c r="C520" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C520" t="s">
-        <v>18</v>
-      </c>
-      <c r="D520" t="s">
-        <v>18</v>
+      <c r="D520" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E520" t="s">
+        <v>18</v>
+      </c>
+      <c r="F520" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F520" t="s">
-        <v>18</v>
-      </c>
-      <c r="G520" t="s">
-        <v>18</v>
+      <c r="G520" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H520" t="s">
         <v>18</v>
@@ -31292,22 +31308,22 @@
         <v>519</v>
       </c>
       <c r="B521" t="s">
+        <v>18</v>
+      </c>
+      <c r="C521" t="s">
+        <v>18</v>
+      </c>
+      <c r="D521" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C521" t="s">
-        <v>18</v>
-      </c>
-      <c r="D521" t="s">
-        <v>18</v>
-      </c>
       <c r="E521" t="s">
+        <v>18</v>
+      </c>
+      <c r="F521" t="s">
+        <v>18</v>
+      </c>
+      <c r="G521" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F521" t="s">
-        <v>18</v>
-      </c>
-      <c r="G521" t="s">
-        <v>18</v>
       </c>
       <c r="H521" t="s">
         <v>18</v>
@@ -31351,22 +31367,22 @@
         <v>520</v>
       </c>
       <c r="B522" t="s">
+        <v>18</v>
+      </c>
+      <c r="C522" t="s">
+        <v>18</v>
+      </c>
+      <c r="D522" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C522" t="s">
-        <v>19</v>
-      </c>
-      <c r="D522" t="s">
-        <v>18</v>
-      </c>
       <c r="E522" t="s">
+        <v>18</v>
+      </c>
+      <c r="F522" t="s">
+        <v>18</v>
+      </c>
+      <c r="G522" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F522" t="s">
-        <v>28</v>
-      </c>
-      <c r="G522" t="s">
-        <v>18</v>
       </c>
       <c r="H522" t="s">
         <v>18</v>
@@ -31409,23 +31425,23 @@
       <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C523" t="s">
+        <v>18</v>
+      </c>
+      <c r="D523" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D523" t="s">
-        <v>18</v>
-      </c>
-      <c r="E523" t="s">
+      <c r="E523" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F523" t="s">
+        <v>18</v>
+      </c>
+      <c r="G523" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G523" t="s">
-        <v>18</v>
       </c>
       <c r="H523" t="s">
         <v>18</v>
@@ -31468,23 +31484,23 @@
       <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C524" t="s">
-        <v>19</v>
-      </c>
-      <c r="D524" t="s">
-        <v>19</v>
-      </c>
-      <c r="E524" t="s">
+        <v>18</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E524" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F524" t="s">
-        <v>28</v>
-      </c>
-      <c r="G524" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G524" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H524" t="s">
         <v>18</v>
@@ -31527,23 +31543,23 @@
       <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C525" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D525" t="s">
-        <v>19</v>
-      </c>
-      <c r="E525" t="s">
+        <v>18</v>
+      </c>
+      <c r="E525" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F525" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G525" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H525" t="s">
         <v>18</v>
@@ -31586,23 +31602,23 @@
       <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B526" t="s">
-        <v>18</v>
-      </c>
-      <c r="C526" t="s">
+      <c r="B526" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C526" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D526" t="s">
-        <v>19</v>
-      </c>
-      <c r="E526" t="s">
-        <v>18</v>
-      </c>
-      <c r="F526" t="s">
+        <v>18</v>
+      </c>
+      <c r="E526" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F526" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G526" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H526" t="s">
         <v>18</v>
@@ -31648,20 +31664,20 @@
       <c r="B527" t="s">
         <v>18</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C527" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D527" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E527" t="s">
         <v>18</v>
       </c>
-      <c r="F527" t="s">
+      <c r="F527" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G527" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H527" t="s">
         <v>18</v>
@@ -31707,20 +31723,20 @@
       <c r="B528" t="s">
         <v>18</v>
       </c>
-      <c r="C528" t="s">
-        <v>18</v>
+      <c r="C528" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D528" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E528" t="s">
         <v>18</v>
       </c>
-      <c r="F528" t="s">
-        <v>18</v>
+      <c r="F528" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G528" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H528" t="s">
         <v>18</v>
@@ -31766,19 +31782,19 @@
       <c r="B529" t="s">
         <v>18</v>
       </c>
-      <c r="C529" t="s">
-        <v>18</v>
-      </c>
-      <c r="D529" t="s">
+      <c r="C529" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D529" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E529" t="s">
         <v>18</v>
       </c>
-      <c r="F529" t="s">
-        <v>18</v>
-      </c>
-      <c r="G529" t="s">
+      <c r="F529" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G529" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H529" t="s">
@@ -31828,8 +31844,8 @@
       <c r="C530" t="s">
         <v>18</v>
       </c>
-      <c r="D530" t="s">
-        <v>18</v>
+      <c r="D530" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E530" t="s">
         <v>18</v>
@@ -31837,8 +31853,8 @@
       <c r="F530" t="s">
         <v>18</v>
       </c>
-      <c r="G530" t="s">
-        <v>18</v>
+      <c r="G530" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H530" t="s">
         <v>29</v>
@@ -31887,8 +31903,8 @@
       <c r="C531" t="s">
         <v>18</v>
       </c>
-      <c r="D531" t="s">
-        <v>18</v>
+      <c r="D531" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E531" t="s">
         <v>18</v>
@@ -31896,8 +31912,8 @@
       <c r="F531" t="s">
         <v>18</v>
       </c>
-      <c r="G531" t="s">
-        <v>18</v>
+      <c r="G531" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H531" t="s">
         <v>29</v>
@@ -31940,23 +31956,23 @@
       <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C532" t="s">
         <v>18</v>
       </c>
-      <c r="D532" t="s">
-        <v>18</v>
-      </c>
-      <c r="E532" t="s">
+      <c r="D532" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E532" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F532" t="s">
         <v>18</v>
       </c>
-      <c r="G532" t="s">
-        <v>18</v>
+      <c r="G532" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H532" t="s">
         <v>18</v>
@@ -31999,22 +32015,22 @@
       <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C533" t="s">
         <v>18</v>
       </c>
-      <c r="D533" t="s">
-        <v>18</v>
-      </c>
-      <c r="E533" t="s">
+      <c r="D533" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E533" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F533" t="s">
         <v>18</v>
       </c>
-      <c r="G533" t="s">
+      <c r="G533" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H533" t="s">
@@ -32058,20 +32074,20 @@
       <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C534" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D534" t="s">
         <v>18</v>
       </c>
-      <c r="E534" t="s">
+      <c r="E534" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F534" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G534" t="s">
         <v>18</v>
@@ -32117,19 +32133,19 @@
       <c r="A535" s="1">
         <v>533</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C535" t="s">
+      <c r="C535" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D535" t="s">
         <v>18</v>
       </c>
-      <c r="E535" t="s">
+      <c r="E535" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F535" t="s">
+      <c r="F535" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G535" t="s">
@@ -32177,22 +32193,22 @@
         <v>534</v>
       </c>
       <c r="B536" t="s">
+        <v>18</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C536" t="s">
-        <v>19</v>
-      </c>
       <c r="D536" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E536" t="s">
+        <v>18</v>
+      </c>
+      <c r="F536" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F536" t="s">
-        <v>28</v>
-      </c>
       <c r="G536" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H536" t="s">
         <v>18</v>
@@ -32236,22 +32252,22 @@
         <v>535</v>
       </c>
       <c r="B537" t="s">
+        <v>18</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C537" t="s">
-        <v>19</v>
-      </c>
       <c r="D537" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E537" t="s">
+        <v>18</v>
+      </c>
+      <c r="F537" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F537" t="s">
-        <v>28</v>
-      </c>
       <c r="G537" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H537" t="s">
         <v>18</v>
@@ -32297,19 +32313,19 @@
       <c r="B538" t="s">
         <v>18</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C538" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D538" t="s">
+      <c r="D538" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E538" t="s">
         <v>18</v>
       </c>
-      <c r="F538" t="s">
+      <c r="F538" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G538" t="s">
+      <c r="G538" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H538" t="s">
@@ -32357,18 +32373,18 @@
         <v>18</v>
       </c>
       <c r="C539" t="s">
+        <v>18</v>
+      </c>
+      <c r="D539" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D539" t="s">
-        <v>19</v>
-      </c>
       <c r="E539" t="s">
         <v>18</v>
       </c>
       <c r="F539" t="s">
-        <v>28</v>
-      </c>
-      <c r="G539" t="s">
+        <v>18</v>
+      </c>
+      <c r="G539" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H539" t="s">
@@ -32418,7 +32434,7 @@
       <c r="C540" t="s">
         <v>18</v>
       </c>
-      <c r="D540" t="s">
+      <c r="D540" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E540" t="s">
@@ -32427,7 +32443,7 @@
       <c r="F540" t="s">
         <v>18</v>
       </c>
-      <c r="G540" t="s">
+      <c r="G540" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H540" t="s">
@@ -32471,22 +32487,22 @@
       <c r="A541" s="1">
         <v>539</v>
       </c>
-      <c r="B541" t="s">
-        <v>18</v>
+      <c r="B541" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C541" t="s">
         <v>18</v>
       </c>
-      <c r="D541" t="s">
+      <c r="D541" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E541" t="s">
-        <v>18</v>
+      <c r="E541" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F541" t="s">
         <v>18</v>
       </c>
-      <c r="G541" t="s">
+      <c r="G541" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H541" t="s">
@@ -32530,22 +32546,22 @@
       <c r="A542" s="1">
         <v>540</v>
       </c>
-      <c r="B542" t="s">
-        <v>18</v>
+      <c r="B542" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C542" t="s">
         <v>18</v>
       </c>
-      <c r="D542" t="s">
-        <v>18</v>
-      </c>
-      <c r="E542" t="s">
-        <v>18</v>
+      <c r="D542" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F542" t="s">
         <v>18</v>
       </c>
-      <c r="G542" t="s">
+      <c r="G542" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H542" t="s">
@@ -32589,8 +32605,8 @@
       <c r="A543" s="1">
         <v>541</v>
       </c>
-      <c r="B543" t="s">
-        <v>18</v>
+      <c r="B543" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C543" t="s">
         <v>18</v>
@@ -32598,8 +32614,8 @@
       <c r="D543" t="s">
         <v>18</v>
       </c>
-      <c r="E543" t="s">
-        <v>18</v>
+      <c r="E543" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F543" t="s">
         <v>18</v>
@@ -32648,20 +32664,20 @@
       <c r="A544" s="1">
         <v>542</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B544" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C544" t="s">
-        <v>18</v>
+      <c r="C544" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D544" t="s">
         <v>18</v>
       </c>
-      <c r="E544" t="s">
+      <c r="E544" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F544" t="s">
-        <v>18</v>
+      <c r="F544" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G544" t="s">
         <v>18</v>
@@ -32708,19 +32724,19 @@
         <v>543</v>
       </c>
       <c r="B545" t="s">
+        <v>18</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C545" t="s">
-        <v>18</v>
-      </c>
       <c r="D545" t="s">
         <v>18</v>
       </c>
       <c r="E545" t="s">
+        <v>18</v>
+      </c>
+      <c r="F545" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F545" t="s">
-        <v>18</v>
       </c>
       <c r="G545" t="s">
         <v>18</v>
@@ -32767,18 +32783,18 @@
         <v>544</v>
       </c>
       <c r="B546" t="s">
+        <v>18</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C546" t="s">
-        <v>19</v>
-      </c>
       <c r="D546" t="s">
         <v>18</v>
       </c>
       <c r="E546" t="s">
-        <v>28</v>
-      </c>
-      <c r="F546" t="s">
+        <v>18</v>
+      </c>
+      <c r="F546" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G546" t="s">
@@ -32825,23 +32841,23 @@
       <c r="A547" s="1">
         <v>545</v>
       </c>
-      <c r="B547" s="2" t="s">
+      <c r="B547" t="s">
         <v>18</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E547" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E547" t="s">
         <v>18</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H547" t="s">
         <v>18</v>
@@ -32884,23 +32900,23 @@
       <c r="A548" s="1">
         <v>546</v>
       </c>
-      <c r="B548" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C548" s="2" t="s">
+      <c r="B548" t="s">
+        <v>18</v>
+      </c>
+      <c r="C548" t="s">
         <v>18</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E548" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F548" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E548" t="s">
+        <v>18</v>
+      </c>
+      <c r="F548" t="s">
         <v>18</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H548" t="s">
         <v>18</v>
@@ -32943,23 +32959,23 @@
       <c r="A549" s="1">
         <v>547</v>
       </c>
-      <c r="B549" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C549" s="2" t="s">
+      <c r="B549" t="s">
+        <v>18</v>
+      </c>
+      <c r="C549" t="s">
         <v>18</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E549" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E549" t="s">
+        <v>18</v>
+      </c>
+      <c r="F549" t="s">
         <v>18</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H549" t="s">
         <v>29</v>
@@ -33003,22 +33019,22 @@
         <v>548</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C550" t="s">
         <v>18</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F550" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F550" t="s">
         <v>18</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H550" t="s">
         <v>18</v>
@@ -33062,18 +33078,18 @@
         <v>549</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C551" t="s">
         <v>18</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F551" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F551" t="s">
         <v>18</v>
       </c>
       <c r="G551" s="2" t="s">
@@ -33121,21 +33137,21 @@
         <v>550</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C552" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C552" t="s">
+        <v>18</v>
+      </c>
+      <c r="D552" t="s">
         <v>18</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F552" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G552" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F552" t="s">
+        <v>18</v>
+      </c>
+      <c r="G552" t="s">
         <v>18</v>
       </c>
       <c r="H552" t="s">
@@ -33180,21 +33196,21 @@
         <v>551</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D553" t="s">
         <v>18</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G553" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G553" t="s">
         <v>18</v>
       </c>
       <c r="H553" t="s">
@@ -33238,22 +33254,22 @@
       <c r="A554" s="1">
         <v>552</v>
       </c>
-      <c r="B554" s="2" t="s">
+      <c r="B554" t="s">
         <v>18</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D554" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E554" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D554" t="s">
+        <v>18</v>
+      </c>
+      <c r="E554" t="s">
         <v>18</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G554" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G554" t="s">
         <v>18</v>
       </c>
       <c r="H554" t="s">
@@ -33297,22 +33313,22 @@
       <c r="A555" s="1">
         <v>553</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="B555" t="s">
         <v>18</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D555" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D555" t="s">
+        <v>18</v>
+      </c>
+      <c r="E555" t="s">
         <v>18</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G555" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G555" t="s">
         <v>18</v>
       </c>
       <c r="H555" t="s">
@@ -33356,23 +33372,23 @@
       <c r="A556" s="1">
         <v>554</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B556" t="s">
         <v>18</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E556" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E556" t="s">
         <v>18</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H556" t="s">
         <v>18</v>
@@ -33415,23 +33431,23 @@
       <c r="A557" s="1">
         <v>555</v>
       </c>
-      <c r="B557" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C557" s="2" t="s">
+      <c r="B557" t="s">
+        <v>18</v>
+      </c>
+      <c r="C557" t="s">
         <v>18</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E557" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F557" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E557" t="s">
+        <v>18</v>
+      </c>
+      <c r="F557" t="s">
         <v>18</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H557" t="s">
         <v>18</v>
@@ -33474,23 +33490,23 @@
       <c r="A558" s="1">
         <v>556</v>
       </c>
-      <c r="B558" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C558" s="2" t="s">
+      <c r="B558" t="s">
+        <v>18</v>
+      </c>
+      <c r="C558" t="s">
         <v>18</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E558" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F558" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E558" t="s">
+        <v>18</v>
+      </c>
+      <c r="F558" t="s">
         <v>18</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H558" t="s">
         <v>18</v>
@@ -33534,22 +33550,22 @@
         <v>557</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C559" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C559" t="s">
         <v>18</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F559" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F559" t="s">
         <v>18</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H559" t="s">
         <v>29</v>
@@ -33592,22 +33608,22 @@
       <c r="A560" s="1">
         <v>558</v>
       </c>
-      <c r="B560" t="s">
-        <v>18</v>
+      <c r="B560" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C560" t="s">
         <v>18</v>
       </c>
-      <c r="D560" t="s">
-        <v>18</v>
-      </c>
-      <c r="E560" t="s">
-        <v>18</v>
+      <c r="D560" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F560" t="s">
         <v>18</v>
       </c>
-      <c r="G560" t="s">
+      <c r="G560" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H560" t="s">
@@ -33651,8 +33667,8 @@
       <c r="A561" s="1">
         <v>559</v>
       </c>
-      <c r="B561" t="s">
-        <v>18</v>
+      <c r="B561" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C561" t="s">
         <v>18</v>
@@ -33660,8 +33676,8 @@
       <c r="D561" t="s">
         <v>18</v>
       </c>
-      <c r="E561" t="s">
-        <v>18</v>
+      <c r="E561" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F561" t="s">
         <v>18</v>
@@ -33710,20 +33726,20 @@
       <c r="A562" s="1">
         <v>560</v>
       </c>
-      <c r="B562" t="s">
-        <v>18</v>
-      </c>
-      <c r="C562" t="s">
-        <v>18</v>
+      <c r="B562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D562" t="s">
         <v>18</v>
       </c>
-      <c r="E562" t="s">
-        <v>18</v>
-      </c>
-      <c r="F562" t="s">
-        <v>18</v>
+      <c r="E562" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G562" t="s">
         <v>18</v>
@@ -33772,8 +33788,8 @@
       <c r="B563" t="s">
         <v>18</v>
       </c>
-      <c r="C563" t="s">
-        <v>18</v>
+      <c r="C563" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D563" t="s">
         <v>18</v>
@@ -33781,8 +33797,8 @@
       <c r="E563" t="s">
         <v>18</v>
       </c>
-      <c r="F563" t="s">
-        <v>18</v>
+      <c r="F563" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G563" t="s">
         <v>18</v>
@@ -33831,8 +33847,8 @@
       <c r="B564" t="s">
         <v>18</v>
       </c>
-      <c r="C564" t="s">
-        <v>18</v>
+      <c r="C564" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D564" t="s">
         <v>18</v>
@@ -33840,8 +33856,8 @@
       <c r="E564" t="s">
         <v>18</v>
       </c>
-      <c r="F564" t="s">
-        <v>18</v>
+      <c r="F564" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G564" t="s">
         <v>18</v>
@@ -33890,20 +33906,20 @@
       <c r="B565" t="s">
         <v>18</v>
       </c>
-      <c r="C565" t="s">
-        <v>18</v>
-      </c>
-      <c r="D565" t="s">
-        <v>18</v>
+      <c r="C565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E565" t="s">
         <v>18</v>
       </c>
-      <c r="F565" t="s">
-        <v>18</v>
-      </c>
-      <c r="G565" t="s">
-        <v>18</v>
+      <c r="F565" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H565" t="s">
         <v>18</v>
@@ -33952,8 +33968,8 @@
       <c r="C566" t="s">
         <v>18</v>
       </c>
-      <c r="D566" t="s">
-        <v>18</v>
+      <c r="D566" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E566" t="s">
         <v>18</v>
@@ -33961,8 +33977,8 @@
       <c r="F566" t="s">
         <v>18</v>
       </c>
-      <c r="G566" t="s">
-        <v>18</v>
+      <c r="G566" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H566" t="s">
         <v>18</v>
@@ -34011,8 +34027,8 @@
       <c r="C567" t="s">
         <v>18</v>
       </c>
-      <c r="D567" t="s">
-        <v>18</v>
+      <c r="D567" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E567" t="s">
         <v>18</v>
@@ -34020,8 +34036,8 @@
       <c r="F567" t="s">
         <v>18</v>
       </c>
-      <c r="G567" t="s">
-        <v>18</v>
+      <c r="G567" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H567" t="s">
         <v>18</v>
@@ -34064,23 +34080,23 @@
       <c r="A568" s="1">
         <v>566</v>
       </c>
-      <c r="B568" t="s">
-        <v>18</v>
+      <c r="B568" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C568" t="s">
         <v>18</v>
       </c>
-      <c r="D568" t="s">
-        <v>18</v>
-      </c>
-      <c r="E568" t="s">
-        <v>18</v>
+      <c r="D568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F568" t="s">
         <v>18</v>
       </c>
-      <c r="G568" t="s">
-        <v>18</v>
+      <c r="G568" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H568" t="s">
         <v>18</v>
@@ -34123,22 +34139,22 @@
       <c r="A569" s="1">
         <v>567</v>
       </c>
-      <c r="B569" t="s">
-        <v>18</v>
+      <c r="B569" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C569" t="s">
         <v>18</v>
       </c>
-      <c r="D569" t="s">
-        <v>18</v>
-      </c>
-      <c r="E569" t="s">
-        <v>18</v>
+      <c r="D569" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F569" t="s">
         <v>18</v>
       </c>
-      <c r="G569" t="s">
+      <c r="G569" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H569" t="s">
@@ -34182,8 +34198,8 @@
       <c r="A570" s="1">
         <v>568</v>
       </c>
-      <c r="B570" t="s">
-        <v>18</v>
+      <c r="B570" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C570" t="s">
         <v>18</v>
@@ -34191,8 +34207,8 @@
       <c r="D570" t="s">
         <v>18</v>
       </c>
-      <c r="E570" t="s">
-        <v>18</v>
+      <c r="E570" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F570" t="s">
         <v>18</v>
@@ -34241,20 +34257,20 @@
       <c r="A571" s="1">
         <v>569</v>
       </c>
-      <c r="B571" t="s">
-        <v>18</v>
-      </c>
-      <c r="C571" t="s">
-        <v>18</v>
+      <c r="B571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D571" t="s">
         <v>18</v>
       </c>
-      <c r="E571" t="s">
-        <v>18</v>
-      </c>
-      <c r="F571" t="s">
-        <v>18</v>
+      <c r="E571" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G571" t="s">
         <v>18</v>
@@ -34303,8 +34319,8 @@
       <c r="B572" t="s">
         <v>18</v>
       </c>
-      <c r="C572" t="s">
-        <v>18</v>
+      <c r="C572" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D572" t="s">
         <v>18</v>
@@ -34312,8 +34328,8 @@
       <c r="E572" t="s">
         <v>18</v>
       </c>
-      <c r="F572" t="s">
-        <v>18</v>
+      <c r="F572" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G572" t="s">
         <v>18</v>
@@ -34362,8 +34378,8 @@
       <c r="B573" t="s">
         <v>18</v>
       </c>
-      <c r="C573" t="s">
-        <v>18</v>
+      <c r="C573" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D573" t="s">
         <v>18</v>
@@ -34371,8 +34387,8 @@
       <c r="E573" t="s">
         <v>18</v>
       </c>
-      <c r="F573" t="s">
-        <v>18</v>
+      <c r="F573" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G573" t="s">
         <v>18</v>
@@ -34421,20 +34437,20 @@
       <c r="B574" t="s">
         <v>18</v>
       </c>
-      <c r="C574" t="s">
-        <v>18</v>
-      </c>
-      <c r="D574" t="s">
-        <v>18</v>
+      <c r="C574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E574" t="s">
         <v>18</v>
       </c>
-      <c r="F574" t="s">
-        <v>18</v>
-      </c>
-      <c r="G574" t="s">
-        <v>18</v>
+      <c r="F574" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G574" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H574" t="s">
         <v>18</v>
@@ -34483,8 +34499,8 @@
       <c r="C575" t="s">
         <v>18</v>
       </c>
-      <c r="D575" t="s">
-        <v>18</v>
+      <c r="D575" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E575" t="s">
         <v>18</v>
@@ -34492,8 +34508,8 @@
       <c r="F575" t="s">
         <v>18</v>
       </c>
-      <c r="G575" t="s">
-        <v>18</v>
+      <c r="G575" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H575" t="s">
         <v>18</v>
@@ -34542,8 +34558,8 @@
       <c r="C576" t="s">
         <v>18</v>
       </c>
-      <c r="D576" t="s">
-        <v>18</v>
+      <c r="D576" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E576" t="s">
         <v>18</v>
@@ -34551,8 +34567,8 @@
       <c r="F576" t="s">
         <v>18</v>
       </c>
-      <c r="G576" t="s">
-        <v>18</v>
+      <c r="G576" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H576" t="s">
         <v>29</v>
@@ -34595,23 +34611,23 @@
       <c r="A577" s="1">
         <v>575</v>
       </c>
-      <c r="B577" t="s">
-        <v>18</v>
+      <c r="B577" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C577" t="s">
         <v>18</v>
       </c>
-      <c r="D577" t="s">
-        <v>18</v>
-      </c>
-      <c r="E577" t="s">
-        <v>18</v>
+      <c r="D577" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F577" t="s">
         <v>18</v>
       </c>
-      <c r="G577" t="s">
-        <v>18</v>
+      <c r="G577" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H577" t="s">
         <v>29</v>
@@ -34654,22 +34670,22 @@
       <c r="A578" s="1">
         <v>576</v>
       </c>
-      <c r="B578" t="s">
-        <v>18</v>
+      <c r="B578" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C578" t="s">
         <v>18</v>
       </c>
-      <c r="D578" t="s">
-        <v>18</v>
-      </c>
-      <c r="E578" t="s">
-        <v>18</v>
+      <c r="D578" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E578" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F578" t="s">
         <v>18</v>
       </c>
-      <c r="G578" t="s">
+      <c r="G578" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H578" t="s">
@@ -34713,8 +34729,8 @@
       <c r="A579" s="1">
         <v>577</v>
       </c>
-      <c r="B579" t="s">
-        <v>18</v>
+      <c r="B579" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C579" t="s">
         <v>18</v>
@@ -34722,8 +34738,8 @@
       <c r="D579" t="s">
         <v>18</v>
       </c>
-      <c r="E579" t="s">
-        <v>18</v>
+      <c r="E579" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F579" t="s">
         <v>18</v>
@@ -34772,20 +34788,20 @@
       <c r="A580" s="1">
         <v>578</v>
       </c>
-      <c r="B580" t="s">
-        <v>18</v>
-      </c>
-      <c r="C580" t="s">
-        <v>18</v>
+      <c r="B580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D580" t="s">
         <v>18</v>
       </c>
-      <c r="E580" t="s">
-        <v>18</v>
-      </c>
-      <c r="F580" t="s">
-        <v>18</v>
+      <c r="E580" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G580" t="s">
         <v>18</v>
@@ -34834,8 +34850,8 @@
       <c r="B581" t="s">
         <v>18</v>
       </c>
-      <c r="C581" t="s">
-        <v>18</v>
+      <c r="C581" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D581" t="s">
         <v>18</v>
@@ -34843,8 +34859,8 @@
       <c r="E581" t="s">
         <v>18</v>
       </c>
-      <c r="F581" t="s">
-        <v>18</v>
+      <c r="F581" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G581" t="s">
         <v>18</v>
@@ -34893,8 +34909,8 @@
       <c r="B582" t="s">
         <v>18</v>
       </c>
-      <c r="C582" t="s">
-        <v>18</v>
+      <c r="C582" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D582" t="s">
         <v>18</v>
@@ -34902,8 +34918,8 @@
       <c r="E582" t="s">
         <v>18</v>
       </c>
-      <c r="F582" t="s">
-        <v>18</v>
+      <c r="F582" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G582" t="s">
         <v>18</v>
@@ -34952,20 +34968,20 @@
       <c r="B583" t="s">
         <v>18</v>
       </c>
-      <c r="C583" t="s">
-        <v>18</v>
-      </c>
-      <c r="D583" t="s">
-        <v>18</v>
+      <c r="C583" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E583" t="s">
         <v>18</v>
       </c>
-      <c r="F583" t="s">
-        <v>18</v>
-      </c>
-      <c r="G583" t="s">
-        <v>18</v>
+      <c r="F583" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G583" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H583" t="s">
         <v>29</v>
@@ -35014,8 +35030,8 @@
       <c r="C584" t="s">
         <v>18</v>
       </c>
-      <c r="D584" t="s">
-        <v>18</v>
+      <c r="D584" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E584" t="s">
         <v>18</v>
@@ -35023,8 +35039,8 @@
       <c r="F584" t="s">
         <v>18</v>
       </c>
-      <c r="G584" t="s">
-        <v>18</v>
+      <c r="G584" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H584" t="s">
         <v>29</v>
@@ -35073,8 +35089,8 @@
       <c r="C585" t="s">
         <v>18</v>
       </c>
-      <c r="D585" t="s">
-        <v>18</v>
+      <c r="D585" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E585" t="s">
         <v>18</v>
@@ -35082,8 +35098,8 @@
       <c r="F585" t="s">
         <v>18</v>
       </c>
-      <c r="G585" t="s">
-        <v>18</v>
+      <c r="G585" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H585" t="s">
         <v>29</v>
@@ -35126,23 +35142,23 @@
       <c r="A586" s="1">
         <v>584</v>
       </c>
-      <c r="B586" t="s">
-        <v>18</v>
+      <c r="B586" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C586" t="s">
         <v>18</v>
       </c>
-      <c r="D586" t="s">
-        <v>18</v>
-      </c>
-      <c r="E586" t="s">
-        <v>18</v>
+      <c r="D586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F586" t="s">
         <v>18</v>
       </c>
-      <c r="G586" t="s">
-        <v>18</v>
+      <c r="G586" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H586" t="s">
         <v>29</v>
@@ -35185,22 +35201,22 @@
       <c r="A587" s="1">
         <v>585</v>
       </c>
-      <c r="B587" t="s">
-        <v>18</v>
+      <c r="B587" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C587" t="s">
         <v>18</v>
       </c>
-      <c r="D587" t="s">
-        <v>18</v>
-      </c>
-      <c r="E587" t="s">
-        <v>18</v>
+      <c r="D587" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F587" t="s">
         <v>18</v>
       </c>
-      <c r="G587" t="s">
+      <c r="G587" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H587" t="s">
@@ -35244,8 +35260,8 @@
       <c r="A588" s="1">
         <v>586</v>
       </c>
-      <c r="B588" t="s">
-        <v>18</v>
+      <c r="B588" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C588" t="s">
         <v>18</v>
@@ -35253,8 +35269,8 @@
       <c r="D588" t="s">
         <v>18</v>
       </c>
-      <c r="E588" t="s">
-        <v>18</v>
+      <c r="E588" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F588" t="s">
         <v>18</v>
@@ -35303,20 +35319,20 @@
       <c r="A589" s="1">
         <v>587</v>
       </c>
-      <c r="B589" t="s">
-        <v>18</v>
-      </c>
-      <c r="C589" t="s">
-        <v>18</v>
+      <c r="B589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D589" t="s">
         <v>18</v>
       </c>
-      <c r="E589" t="s">
-        <v>18</v>
-      </c>
-      <c r="F589" t="s">
-        <v>18</v>
+      <c r="E589" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G589" t="s">
         <v>18</v>
@@ -35365,8 +35381,8 @@
       <c r="B590" t="s">
         <v>18</v>
       </c>
-      <c r="C590" t="s">
-        <v>18</v>
+      <c r="C590" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D590" t="s">
         <v>18</v>
@@ -35374,8 +35390,8 @@
       <c r="E590" t="s">
         <v>18</v>
       </c>
-      <c r="F590" t="s">
-        <v>18</v>
+      <c r="F590" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G590" t="s">
         <v>18</v>
@@ -35424,8 +35440,8 @@
       <c r="B591" t="s">
         <v>18</v>
       </c>
-      <c r="C591" t="s">
-        <v>18</v>
+      <c r="C591" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D591" t="s">
         <v>18</v>
@@ -35433,8 +35449,8 @@
       <c r="E591" t="s">
         <v>18</v>
       </c>
-      <c r="F591" t="s">
-        <v>18</v>
+      <c r="F591" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G591" t="s">
         <v>18</v>
@@ -35483,20 +35499,20 @@
       <c r="B592" t="s">
         <v>18</v>
       </c>
-      <c r="C592" t="s">
-        <v>18</v>
-      </c>
-      <c r="D592" t="s">
-        <v>18</v>
+      <c r="C592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E592" t="s">
         <v>18</v>
       </c>
-      <c r="F592" t="s">
-        <v>18</v>
-      </c>
-      <c r="G592" t="s">
-        <v>18</v>
+      <c r="F592" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G592" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H592" t="s">
         <v>18</v>
@@ -35545,8 +35561,8 @@
       <c r="C593" t="s">
         <v>18</v>
       </c>
-      <c r="D593" t="s">
-        <v>18</v>
+      <c r="D593" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E593" t="s">
         <v>18</v>
@@ -35554,8 +35570,8 @@
       <c r="F593" t="s">
         <v>18</v>
       </c>
-      <c r="G593" t="s">
-        <v>18</v>
+      <c r="G593" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H593" t="s">
         <v>18</v>
@@ -35604,8 +35620,8 @@
       <c r="C594" t="s">
         <v>18</v>
       </c>
-      <c r="D594" t="s">
-        <v>18</v>
+      <c r="D594" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E594" t="s">
         <v>18</v>
@@ -35613,8 +35629,8 @@
       <c r="F594" t="s">
         <v>18</v>
       </c>
-      <c r="G594" t="s">
-        <v>18</v>
+      <c r="G594" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H594" t="s">
         <v>18</v>
@@ -35663,8 +35679,8 @@
       <c r="C595" t="s">
         <v>18</v>
       </c>
-      <c r="D595" t="s">
-        <v>18</v>
+      <c r="D595" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E595" t="s">
         <v>18</v>
@@ -35672,8 +35688,8 @@
       <c r="F595" t="s">
         <v>18</v>
       </c>
-      <c r="G595" t="s">
-        <v>18</v>
+      <c r="G595" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H595" t="s">
         <v>18</v>
@@ -35903,7 +35919,7 @@
         <v>19</v>
       </c>
       <c r="E599" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F599" t="s">
         <v>28</v>
@@ -35962,10 +35978,10 @@
         <v>19</v>
       </c>
       <c r="E600" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F600" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G600" t="s">
         <v>28</v>
@@ -36021,10 +36037,10 @@
         <v>19</v>
       </c>
       <c r="E601" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F601" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G601" t="s">
         <v>28</v>

--- a/song8.xlsx
+++ b/song8.xlsx
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C436" sqref="C436"/>
+    <sheetView tabSelected="1" topLeftCell="A599" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B572" sqref="B572:G575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34319,8 +34319,8 @@
       <c r="B572" t="s">
         <v>18</v>
       </c>
-      <c r="C572" s="2" t="s">
-        <v>19</v>
+      <c r="C572" t="s">
+        <v>18</v>
       </c>
       <c r="D572" t="s">
         <v>18</v>
@@ -34328,8 +34328,8 @@
       <c r="E572" t="s">
         <v>18</v>
       </c>
-      <c r="F572" s="2" t="s">
-        <v>28</v>
+      <c r="F572" t="s">
+        <v>18</v>
       </c>
       <c r="G572" t="s">
         <v>18</v>
@@ -34378,8 +34378,8 @@
       <c r="B573" t="s">
         <v>18</v>
       </c>
-      <c r="C573" s="2" t="s">
-        <v>19</v>
+      <c r="C573" t="s">
+        <v>18</v>
       </c>
       <c r="D573" t="s">
         <v>18</v>
@@ -34387,8 +34387,8 @@
       <c r="E573" t="s">
         <v>18</v>
       </c>
-      <c r="F573" s="2" t="s">
-        <v>28</v>
+      <c r="F573" t="s">
+        <v>18</v>
       </c>
       <c r="G573" t="s">
         <v>18</v>
@@ -34437,20 +34437,20 @@
       <c r="B574" t="s">
         <v>18</v>
       </c>
-      <c r="C574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D574" s="2" t="s">
-        <v>19</v>
+      <c r="C574" t="s">
+        <v>18</v>
+      </c>
+      <c r="D574" t="s">
+        <v>18</v>
       </c>
       <c r="E574" t="s">
         <v>18</v>
       </c>
-      <c r="F574" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G574" s="2" t="s">
-        <v>28</v>
+      <c r="F574" t="s">
+        <v>18</v>
+      </c>
+      <c r="G574" t="s">
+        <v>18</v>
       </c>
       <c r="H574" t="s">
         <v>18</v>
@@ -34499,8 +34499,8 @@
       <c r="C575" t="s">
         <v>18</v>
       </c>
-      <c r="D575" s="2" t="s">
-        <v>19</v>
+      <c r="D575" t="s">
+        <v>18</v>
       </c>
       <c r="E575" t="s">
         <v>18</v>
@@ -34508,8 +34508,8 @@
       <c r="F575" t="s">
         <v>18</v>
       </c>
-      <c r="G575" s="2" t="s">
-        <v>28</v>
+      <c r="G575" t="s">
+        <v>18</v>
       </c>
       <c r="H575" t="s">
         <v>18</v>
@@ -34558,8 +34558,8 @@
       <c r="C576" t="s">
         <v>18</v>
       </c>
-      <c r="D576" s="2" t="s">
-        <v>19</v>
+      <c r="D576" t="s">
+        <v>18</v>
       </c>
       <c r="E576" t="s">
         <v>18</v>
@@ -34567,8 +34567,8 @@
       <c r="F576" t="s">
         <v>18</v>
       </c>
-      <c r="G576" s="2" t="s">
-        <v>28</v>
+      <c r="G576" t="s">
+        <v>18</v>
       </c>
       <c r="H576" t="s">
         <v>29</v>
@@ -34611,23 +34611,23 @@
       <c r="A577" s="1">
         <v>575</v>
       </c>
-      <c r="B577" s="2" t="s">
-        <v>19</v>
+      <c r="B577" t="s">
+        <v>18</v>
       </c>
       <c r="C577" t="s">
         <v>18</v>
       </c>
-      <c r="D577" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E577" s="2" t="s">
-        <v>28</v>
+      <c r="D577" t="s">
+        <v>18</v>
+      </c>
+      <c r="E577" t="s">
+        <v>18</v>
       </c>
       <c r="F577" t="s">
         <v>18</v>
       </c>
-      <c r="G577" s="2" t="s">
-        <v>28</v>
+      <c r="G577" t="s">
+        <v>18</v>
       </c>
       <c r="H577" t="s">
         <v>29</v>
@@ -34670,22 +34670,22 @@
       <c r="A578" s="1">
         <v>576</v>
       </c>
-      <c r="B578" s="2" t="s">
-        <v>19</v>
+      <c r="B578" t="s">
+        <v>18</v>
       </c>
       <c r="C578" t="s">
         <v>18</v>
       </c>
-      <c r="D578" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E578" s="2" t="s">
-        <v>28</v>
+      <c r="D578" t="s">
+        <v>18</v>
+      </c>
+      <c r="E578" t="s">
+        <v>18</v>
       </c>
       <c r="F578" t="s">
         <v>18</v>
       </c>
-      <c r="G578" s="2" t="s">
+      <c r="G578" t="s">
         <v>18</v>
       </c>
       <c r="H578" t="s">
@@ -34729,8 +34729,8 @@
       <c r="A579" s="1">
         <v>577</v>
       </c>
-      <c r="B579" s="2" t="s">
-        <v>19</v>
+      <c r="B579" t="s">
+        <v>18</v>
       </c>
       <c r="C579" t="s">
         <v>18</v>
@@ -34738,8 +34738,8 @@
       <c r="D579" t="s">
         <v>18</v>
       </c>
-      <c r="E579" s="2" t="s">
-        <v>28</v>
+      <c r="E579" t="s">
+        <v>18</v>
       </c>
       <c r="F579" t="s">
         <v>18</v>
@@ -34788,20 +34788,20 @@
       <c r="A580" s="1">
         <v>578</v>
       </c>
-      <c r="B580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C580" s="2" t="s">
-        <v>19</v>
+      <c r="B580" t="s">
+        <v>18</v>
+      </c>
+      <c r="C580" t="s">
+        <v>18</v>
       </c>
       <c r="D580" t="s">
         <v>18</v>
       </c>
-      <c r="E580" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F580" s="2" t="s">
-        <v>28</v>
+      <c r="E580" t="s">
+        <v>18</v>
+      </c>
+      <c r="F580" t="s">
+        <v>18</v>
       </c>
       <c r="G580" t="s">
         <v>18</v>
@@ -34850,8 +34850,8 @@
       <c r="B581" t="s">
         <v>18</v>
       </c>
-      <c r="C581" s="2" t="s">
-        <v>19</v>
+      <c r="C581" t="s">
+        <v>18</v>
       </c>
       <c r="D581" t="s">
         <v>18</v>
@@ -34859,8 +34859,8 @@
       <c r="E581" t="s">
         <v>18</v>
       </c>
-      <c r="F581" s="2" t="s">
-        <v>28</v>
+      <c r="F581" t="s">
+        <v>18</v>
       </c>
       <c r="G581" t="s">
         <v>18</v>
@@ -34909,8 +34909,8 @@
       <c r="B582" t="s">
         <v>18</v>
       </c>
-      <c r="C582" s="2" t="s">
-        <v>19</v>
+      <c r="C582" t="s">
+        <v>18</v>
       </c>
       <c r="D582" t="s">
         <v>18</v>
@@ -34918,8 +34918,8 @@
       <c r="E582" t="s">
         <v>18</v>
       </c>
-      <c r="F582" s="2" t="s">
-        <v>28</v>
+      <c r="F582" t="s">
+        <v>18</v>
       </c>
       <c r="G582" t="s">
         <v>18</v>
@@ -34968,20 +34968,20 @@
       <c r="B583" t="s">
         <v>18</v>
       </c>
-      <c r="C583" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>19</v>
+      <c r="C583" t="s">
+        <v>18</v>
+      </c>
+      <c r="D583" t="s">
+        <v>18</v>
       </c>
       <c r="E583" t="s">
         <v>18</v>
       </c>
-      <c r="F583" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G583" s="2" t="s">
-        <v>28</v>
+      <c r="F583" t="s">
+        <v>18</v>
+      </c>
+      <c r="G583" t="s">
+        <v>18</v>
       </c>
       <c r="H583" t="s">
         <v>29</v>
@@ -35030,8 +35030,8 @@
       <c r="C584" t="s">
         <v>18</v>
       </c>
-      <c r="D584" s="2" t="s">
-        <v>19</v>
+      <c r="D584" t="s">
+        <v>18</v>
       </c>
       <c r="E584" t="s">
         <v>18</v>
@@ -35039,8 +35039,8 @@
       <c r="F584" t="s">
         <v>18</v>
       </c>
-      <c r="G584" s="2" t="s">
-        <v>28</v>
+      <c r="G584" t="s">
+        <v>18</v>
       </c>
       <c r="H584" t="s">
         <v>29</v>
@@ -35089,8 +35089,8 @@
       <c r="C585" t="s">
         <v>18</v>
       </c>
-      <c r="D585" s="2" t="s">
-        <v>19</v>
+      <c r="D585" t="s">
+        <v>18</v>
       </c>
       <c r="E585" t="s">
         <v>18</v>
@@ -35098,8 +35098,8 @@
       <c r="F585" t="s">
         <v>18</v>
       </c>
-      <c r="G585" s="2" t="s">
-        <v>28</v>
+      <c r="G585" t="s">
+        <v>18</v>
       </c>
       <c r="H585" t="s">
         <v>29</v>
@@ -35142,23 +35142,23 @@
       <c r="A586" s="1">
         <v>584</v>
       </c>
-      <c r="B586" s="2" t="s">
-        <v>19</v>
+      <c r="B586" t="s">
+        <v>18</v>
       </c>
       <c r="C586" t="s">
         <v>18</v>
       </c>
-      <c r="D586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E586" s="2" t="s">
-        <v>28</v>
+      <c r="D586" t="s">
+        <v>18</v>
+      </c>
+      <c r="E586" t="s">
+        <v>18</v>
       </c>
       <c r="F586" t="s">
         <v>18</v>
       </c>
-      <c r="G586" s="2" t="s">
-        <v>28</v>
+      <c r="G586" t="s">
+        <v>18</v>
       </c>
       <c r="H586" t="s">
         <v>29</v>
@@ -35201,22 +35201,22 @@
       <c r="A587" s="1">
         <v>585</v>
       </c>
-      <c r="B587" s="2" t="s">
-        <v>19</v>
+      <c r="B587" t="s">
+        <v>18</v>
       </c>
       <c r="C587" t="s">
         <v>18</v>
       </c>
-      <c r="D587" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E587" s="2" t="s">
-        <v>28</v>
+      <c r="D587" t="s">
+        <v>18</v>
+      </c>
+      <c r="E587" t="s">
+        <v>18</v>
       </c>
       <c r="F587" t="s">
         <v>18</v>
       </c>
-      <c r="G587" s="2" t="s">
+      <c r="G587" t="s">
         <v>18</v>
       </c>
       <c r="H587" t="s">
@@ -35260,8 +35260,8 @@
       <c r="A588" s="1">
         <v>586</v>
       </c>
-      <c r="B588" s="2" t="s">
-        <v>19</v>
+      <c r="B588" t="s">
+        <v>18</v>
       </c>
       <c r="C588" t="s">
         <v>18</v>
@@ -35269,8 +35269,8 @@
       <c r="D588" t="s">
         <v>18</v>
       </c>
-      <c r="E588" s="2" t="s">
-        <v>28</v>
+      <c r="E588" t="s">
+        <v>18</v>
       </c>
       <c r="F588" t="s">
         <v>18</v>
@@ -35319,20 +35319,20 @@
       <c r="A589" s="1">
         <v>587</v>
       </c>
-      <c r="B589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C589" s="2" t="s">
-        <v>19</v>
+      <c r="B589" t="s">
+        <v>18</v>
+      </c>
+      <c r="C589" t="s">
+        <v>18</v>
       </c>
       <c r="D589" t="s">
         <v>18</v>
       </c>
-      <c r="E589" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F589" s="2" t="s">
-        <v>28</v>
+      <c r="E589" t="s">
+        <v>18</v>
+      </c>
+      <c r="F589" t="s">
+        <v>18</v>
       </c>
       <c r="G589" t="s">
         <v>18</v>
@@ -35381,8 +35381,8 @@
       <c r="B590" t="s">
         <v>18</v>
       </c>
-      <c r="C590" s="2" t="s">
-        <v>19</v>
+      <c r="C590" t="s">
+        <v>18</v>
       </c>
       <c r="D590" t="s">
         <v>18</v>
@@ -35390,8 +35390,8 @@
       <c r="E590" t="s">
         <v>18</v>
       </c>
-      <c r="F590" s="2" t="s">
-        <v>28</v>
+      <c r="F590" t="s">
+        <v>18</v>
       </c>
       <c r="G590" t="s">
         <v>18</v>
@@ -35440,8 +35440,8 @@
       <c r="B591" t="s">
         <v>18</v>
       </c>
-      <c r="C591" s="2" t="s">
-        <v>19</v>
+      <c r="C591" t="s">
+        <v>18</v>
       </c>
       <c r="D591" t="s">
         <v>18</v>
@@ -35449,8 +35449,8 @@
       <c r="E591" t="s">
         <v>18</v>
       </c>
-      <c r="F591" s="2" t="s">
-        <v>28</v>
+      <c r="F591" t="s">
+        <v>18</v>
       </c>
       <c r="G591" t="s">
         <v>18</v>
@@ -35499,20 +35499,20 @@
       <c r="B592" t="s">
         <v>18</v>
       </c>
-      <c r="C592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D592" s="2" t="s">
-        <v>19</v>
+      <c r="C592" t="s">
+        <v>18</v>
+      </c>
+      <c r="D592" t="s">
+        <v>18</v>
       </c>
       <c r="E592" t="s">
         <v>18</v>
       </c>
-      <c r="F592" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G592" s="2" t="s">
-        <v>28</v>
+      <c r="F592" t="s">
+        <v>18</v>
+      </c>
+      <c r="G592" t="s">
+        <v>18</v>
       </c>
       <c r="H592" t="s">
         <v>18</v>
@@ -35561,8 +35561,8 @@
       <c r="C593" t="s">
         <v>18</v>
       </c>
-      <c r="D593" s="2" t="s">
-        <v>19</v>
+      <c r="D593" t="s">
+        <v>18</v>
       </c>
       <c r="E593" t="s">
         <v>18</v>
@@ -35570,8 +35570,8 @@
       <c r="F593" t="s">
         <v>18</v>
       </c>
-      <c r="G593" s="2" t="s">
-        <v>28</v>
+      <c r="G593" t="s">
+        <v>18</v>
       </c>
       <c r="H593" t="s">
         <v>18</v>
@@ -35620,8 +35620,8 @@
       <c r="C594" t="s">
         <v>18</v>
       </c>
-      <c r="D594" s="2" t="s">
-        <v>19</v>
+      <c r="D594" t="s">
+        <v>18</v>
       </c>
       <c r="E594" t="s">
         <v>18</v>
@@ -35629,8 +35629,8 @@
       <c r="F594" t="s">
         <v>18</v>
       </c>
-      <c r="G594" s="2" t="s">
-        <v>28</v>
+      <c r="G594" t="s">
+        <v>18</v>
       </c>
       <c r="H594" t="s">
         <v>18</v>
@@ -35679,8 +35679,8 @@
       <c r="C595" t="s">
         <v>18</v>
       </c>
-      <c r="D595" s="2" t="s">
-        <v>19</v>
+      <c r="D595" t="s">
+        <v>18</v>
       </c>
       <c r="E595" t="s">
         <v>18</v>
@@ -35688,8 +35688,8 @@
       <c r="F595" t="s">
         <v>18</v>
       </c>
-      <c r="G595" s="2" t="s">
-        <v>28</v>
+      <c r="G595" t="s">
+        <v>18</v>
       </c>
       <c r="H595" t="s">
         <v>18</v>
@@ -35919,13 +35919,13 @@
         <v>19</v>
       </c>
       <c r="E599" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F599" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G599" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H599" t="s">
         <v>18</v>
@@ -35978,13 +35978,13 @@
         <v>19</v>
       </c>
       <c r="E600" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F600" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G600" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H600" t="s">
         <v>18</v>
@@ -36037,13 +36037,13 @@
         <v>19</v>
       </c>
       <c r="E601" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F601" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G601" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H601" t="s">
         <v>18</v>
@@ -36096,13 +36096,13 @@
         <v>19</v>
       </c>
       <c r="E602" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F602" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G602" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H602" t="s">
         <v>18</v>
